--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -22,12 +22,12 @@
     <definedName name="Okno_Dni">Obliczenia!$D$29</definedName>
     <definedName name="Okno_Przesunięcie">Obliczenia!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Działanie</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Strona powitalna</t>
-  </si>
-  <si>
-    <t>Panel Górny</t>
   </si>
   <si>
     <t>Damian</t>
@@ -2346,10 +2343,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.3000000000000007</c:v>
@@ -2370,13 +2367,13 @@
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,7 +2389,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PANEL GÓRNY</c:v>
+                  <c:v>PANEL LOGOWANIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2540,7 +2537,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -2817,7 +2814,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2844,16 +2840,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.33849275362318842"/>
-                      <c:h val="0.11155960768061886"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3187,7 +3173,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3214,20 +3199,9 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.32544927536231882"/>
-                      <c:h val="0.12715414959095026"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3254,20 +3228,9 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.35443478260869565"/>
-                      <c:h val="0.10766097220303603"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3294,16 +3257,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.35588405797101447"/>
-                      <c:h val="0.12325551411336741"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3602,7 +3555,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="21"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3629,41 +3581,9 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.23587686865228805"/>
-                      <c:h val="9.9064327485380119E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.23007976720301268"/>
-                      <c:h val="0.10686159844054581"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3690,16 +3610,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.21703628894214311"/>
-                      <c:h val="9.5165692007797273E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -4148,94 +4058,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7776,11 +7686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="251561744"/>
-        <c:axId val="251562920"/>
+        <c:axId val="121091200"/>
+        <c:axId val="121092736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="251561744"/>
+        <c:axId val="121091200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7803,7 +7713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251562920"/>
+        <c:crossAx val="121092736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7811,7 +7721,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251562920"/>
+        <c:axId val="121092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7823,7 +7733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251561744"/>
+        <c:crossAx val="121091200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7910,7 +7820,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Pasek przewijania " descr="Click the scroll bar to modify the project time frame shown on the Timeline Chart or enter the start date for the display of project activities in cell D20." hidden="1">
+            <xdr:cNvPr id="1025" name="Pasek przewijania " hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -7919,7 +7829,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7927,12 +7837,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -8230,8 +8134,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8303,7 +8207,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8312,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="19">
         <f>D20</f>
@@ -8323,7 +8227,7 @@
         <v>41883</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8343,7 +8247,7 @@
         <v>41883</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8363,7 +8267,7 @@
         <v>41901</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8371,20 +8275,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="19">
-        <f>E25+3</f>
-        <v>41904</v>
-      </c>
-      <c r="E26" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
-        <v>41918</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
@@ -8392,18 +8286,18 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="19">
-        <f>E26+1</f>
-        <v>41919</v>
+        <f>E25+1</f>
+        <v>41902</v>
       </c>
       <c r="E27" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41926</v>
+        <v>41909</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8412,7 +8306,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="19">
         <f>D25</f>
@@ -8423,7 +8317,7 @@
         <v>41950</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8432,7 +8326,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="19">
         <f>D25</f>
@@ -8443,7 +8337,7 @@
         <v>41898</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8452,7 +8346,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="19">
         <f>E29+1</f>
@@ -8463,7 +8357,7 @@
         <v>41906</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8472,7 +8366,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="19">
         <f>E30+1</f>
@@ -8483,7 +8377,7 @@
         <v>41914</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8492,7 +8386,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="19">
         <f>E31+1</f>
@@ -8503,7 +8397,7 @@
         <v>41922</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8512,7 +8406,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="19">
         <f>E32+1</f>
@@ -8523,7 +8417,7 @@
         <v>41930</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8532,7 +8426,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="19">
         <f t="shared" ref="D34:D36" si="2">D33+8</f>
@@ -8543,7 +8437,7 @@
         <v>41938</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8552,7 +8446,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="19">
         <f t="shared" si="2"/>
@@ -8563,7 +8457,7 @@
         <v>41946</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8572,7 +8466,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="19">
         <f t="shared" si="2"/>
@@ -8583,7 +8477,7 @@
         <v>41954</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8592,18 +8486,18 @@
         <v>15</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="19">
         <f>E27+6</f>
-        <v>41932</v>
+        <v>41915</v>
       </c>
       <c r="E37" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
-        <v>41946</v>
+        <v>41929</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8612,7 +8506,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="21">
         <f>E28+3</f>
@@ -8623,7 +8517,7 @@
         <v>41959</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8632,18 +8526,18 @@
         <v>17</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="19">
         <f>E37+5</f>
-        <v>41951</v>
+        <v>41934</v>
       </c>
       <c r="E39" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+22</f>
-        <v>41973</v>
+        <v>41956</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8652,7 +8546,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="21">
         <f>E38+1</f>
@@ -8663,7 +8557,7 @@
         <v>41966</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8672,18 +8566,18 @@
         <v>19</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="19">
         <f>E39+1</f>
-        <v>41974</v>
+        <v>41957</v>
       </c>
       <c r="E41" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+11</f>
-        <v>41985</v>
+        <v>41968</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8692,18 +8586,18 @@
         <v>20</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="21">
         <f>E41+3</f>
-        <v>41988</v>
+        <v>41971</v>
       </c>
       <c r="E42" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+13</f>
-        <v>42001</v>
+        <v>41984</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8712,7 +8606,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="21">
         <f>E40+1</f>
@@ -8723,7 +8617,7 @@
         <v>41981</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8807,7 +8701,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41883</v>
+        <v>41912</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8922,7 +8816,7 @@
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E17)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
@@ -8936,7 +8830,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -9724,11 +9618,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C36,Działania[Identyfikator],0))</f>
-        <v>Panel Górny</v>
+        <v>Panel Logowania</v>
       </c>
       <c r="E36" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9806,13 +9700,13 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="X36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="X36">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="Y36">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>7.3000000000000007</v>
       </c>
       <c r="Z36">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9838,21 +9732,21 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="AF36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AG36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AH36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AI36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
+      <c r="AF36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
@@ -11064,11 +10958,11 @@
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C48,Działania[Identyfikator],0)))</f>
-        <v>PANEL GÓRNY</v>
+        <v>PANEL LOGOWANIA</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -11174,9 +11068,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AE48" t="e">
+      <c r="AE48">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="AF48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11837,9 +11731,9 @@
       <c r="D56" t="s">
         <v>11</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="e">
         <f t="shared" ref="E56:AH56" ca="1" si="16">IF(E55=$D$3,5,NA())</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="F56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11953,9 +11847,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="AH56" t="e">
+      <c r="AH56">
         <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Działanie</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Usuwanie plików</t>
+  </si>
+  <si>
+    <t>Magda i Mateusz</t>
   </si>
 </sst>
 </file>
@@ -4750,7 +4753,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$E$72</c:f>
@@ -4790,7 +4792,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$F$72</c:f>
@@ -4830,7 +4831,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$G$72</c:f>
@@ -4870,7 +4870,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$H$72</c:f>
@@ -4910,7 +4909,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$I$72</c:f>
@@ -4950,7 +4948,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$J$72</c:f>
@@ -4990,7 +4987,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$K$72</c:f>
@@ -5030,7 +5026,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$L$72</c:f>
@@ -5070,7 +5065,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$M$72</c:f>
@@ -5110,7 +5104,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$N$72</c:f>
@@ -5150,7 +5143,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$O$72</c:f>
@@ -5190,7 +5182,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$P$72</c:f>
@@ -5230,7 +5221,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Q$72</c:f>
@@ -5270,7 +5260,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$R$72</c:f>
@@ -5310,7 +5299,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$S$72</c:f>
@@ -5350,7 +5338,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$T$72</c:f>
@@ -5390,7 +5377,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$U$72</c:f>
@@ -5430,7 +5416,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$V$72</c:f>
@@ -5470,7 +5455,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$W$72</c:f>
@@ -5510,7 +5494,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$X$72</c:f>
@@ -5550,7 +5533,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Y$72</c:f>
@@ -5590,7 +5572,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Z$72</c:f>
@@ -5630,7 +5611,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AA$72</c:f>
@@ -5670,7 +5650,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AB$72</c:f>
@@ -5710,7 +5689,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AC$72</c:f>
@@ -5750,7 +5728,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AD$72</c:f>
@@ -5790,7 +5767,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AE$72</c:f>
@@ -5830,7 +5806,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AF$72</c:f>
@@ -5870,7 +5845,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AG$72</c:f>
@@ -5910,7 +5884,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AH$72</c:f>
@@ -6097,7 +6070,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$E$70</c:f>
@@ -6137,7 +6109,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$F$70</c:f>
@@ -6177,7 +6148,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$G$70</c:f>
@@ -6217,7 +6187,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$H$70</c:f>
@@ -6257,7 +6226,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$I$70</c:f>
@@ -6297,7 +6265,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$J$70</c:f>
@@ -6337,7 +6304,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$K$70</c:f>
@@ -6377,7 +6343,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$L$70</c:f>
@@ -6417,7 +6382,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$M$70</c:f>
@@ -6457,7 +6421,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$N$70</c:f>
@@ -6497,7 +6460,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$O$70</c:f>
@@ -6537,7 +6499,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$P$70</c:f>
@@ -6577,7 +6538,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Q$70</c:f>
@@ -6617,7 +6577,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$R$70</c:f>
@@ -6657,7 +6616,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$S$70</c:f>
@@ -6697,7 +6655,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$T$70</c:f>
@@ -6737,7 +6694,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$U$70</c:f>
@@ -6777,7 +6733,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$V$70</c:f>
@@ -6817,7 +6772,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$W$70</c:f>
@@ -6857,7 +6811,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$X$70</c:f>
@@ -6897,7 +6850,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Y$70</c:f>
@@ -6937,7 +6889,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Z$70</c:f>
@@ -6977,7 +6928,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AA$70</c:f>
@@ -7017,7 +6967,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AB$70</c:f>
@@ -7057,7 +7006,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AC$70</c:f>
@@ -7097,7 +7045,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AD$70</c:f>
@@ -7137,7 +7084,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AE$70</c:f>
@@ -7177,7 +7123,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AF$70</c:f>
@@ -7217,7 +7162,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AG$70</c:f>
@@ -7257,7 +7201,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AH$70</c:f>
@@ -7686,11 +7629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121091200"/>
-        <c:axId val="121092736"/>
+        <c:axId val="142656640"/>
+        <c:axId val="142658176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121091200"/>
+        <c:axId val="142656640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,7 +7656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121092736"/>
+        <c:crossAx val="142658176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7721,7 +7664,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121092736"/>
+        <c:axId val="142658176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7733,7 +7676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121091200"/>
+        <c:crossAx val="142656640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8135,7 +8078,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8337,7 +8280,7 @@
         <v>41898</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -12,7 +12,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="DataRozpoczęcia">Obliczenia!$D$28</definedName>
@@ -22,12 +21,12 @@
     <definedName name="Okno_Dni">Obliczenia!$D$29</definedName>
     <definedName name="Okno_Przesunięcie">Obliczenia!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Działanie</t>
   </si>
@@ -95,9 +94,6 @@
     <t>Panel Logowania</t>
   </si>
   <si>
-    <t>Skrypt do obrazów</t>
-  </si>
-  <si>
     <t>Wymaganie funkcjonalne/niefunkcjonalne</t>
   </si>
   <si>
@@ -131,31 +127,37 @@
     <t>Adam i Mateusz</t>
   </si>
   <si>
-    <t>Upload plików</t>
-  </si>
-  <si>
-    <t>Połączenie z bazą danych</t>
-  </si>
-  <si>
     <t>Integracja Fancybox</t>
   </si>
   <si>
     <t>Przygotowanie platofrmy Github</t>
   </si>
   <si>
-    <t>Autoscroll</t>
-  </si>
-  <si>
-    <t>Automove</t>
-  </si>
-  <si>
-    <t>Filtr Zdjęć</t>
-  </si>
-  <si>
     <t>Usuwanie plików</t>
   </si>
   <si>
     <t>Magda i Mateusz</t>
+  </si>
+  <si>
+    <t>Zaprojektowanie modelu bazy danych</t>
+  </si>
+  <si>
+    <t>Upload plików[Drag and Drop]</t>
+  </si>
+  <si>
+    <t>Połączenie funkcji składowych z bazą danych</t>
+  </si>
+  <si>
+    <t>Autoscroll[Centrowanie]</t>
+  </si>
+  <si>
+    <t>Dynamiczne odkrywanie treści</t>
+  </si>
+  <si>
+    <t>Skrypt galerii</t>
+  </si>
+  <si>
+    <t>Automove Cursor</t>
   </si>
 </sst>
 </file>
@@ -552,7 +554,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]calcs!$E$31:$AH$31</c:f>
+              <c:f>[1]calcs!$E$31:$AH$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -656,7 +658,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -759,7 +761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/D!</c:v>
+                  <c:v>PRZYGOTOWANIE PLATOFRMY GITHUB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,7 +810,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -943,7 +945,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]calcs!$E$31:$AH$31</c:f>
+              <c:f>[1]calcs!$E$31:$AH$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1150,7 +1152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PRZYGOTOWANIE PLATOFRMY GITHUB</c:v>
+                  <c:v>DIAGRAM GANTTA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1232,7 +1234,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1379,7 +1380,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]calcs!$E$31:$AH$31</c:f>
+              <c:f>[1]calcs!$E$31:$AH$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1483,61 +1484,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1586,7 +1587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIAGRAM GANTTA</c:v>
+                  <c:v>STRONA POWITALNA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1659,61 +1660,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1794,7 +1795,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]calcs!$E$31:$AH$31</c:f>
+              <c:f>[1]calcs!$E$31:$AH$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1922,61 +1923,61 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="22">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="24">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="25">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="26">
                   <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -2001,7 +2002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STRONA POWITALNA</c:v>
+                  <c:v>ZAPROJEKTOWANIE MODELU BAZY DANYCH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2104,31 +2105,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -2185,7 +2186,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]calcs!$E$31:$AH$31</c:f>
+              <c:f>[1]calcs!$E$31:$AH$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2346,37 +2347,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="29">
                   <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,9 +2429,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2540,7 +2539,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -2705,7 +2704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKRYPT DO OBRAZÓW</c:v>
+                  <c:v>SKRYPT GALERII</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2861,7 +2860,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3260,6 +3258,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3278,7 +3285,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3613,6 +3619,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3631,7 +3646,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3923,7 +3937,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4148,7 +4161,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,6 +4766,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$E$72</c:f>
@@ -4776,7 +4790,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BD68B9C1-4A5A-4870-A22B-25AB11E94C5A}</c15:txfldGUID>
+                      <c15:txfldGUID>{56356C43-C82B-4D1C-8E01-7DCA25864E81}</c15:txfldGUID>
                       <c15:f>Obliczenia!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4792,6 +4806,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$F$72</c:f>
@@ -4815,7 +4830,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A467D5BD-C9AA-42BE-B647-847083E49C1D}</c15:txfldGUID>
+                      <c15:txfldGUID>{6A4C7AA1-012B-441A-9438-2E2A00643ABF}</c15:txfldGUID>
                       <c15:f>Obliczenia!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4831,6 +4846,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$G$72</c:f>
@@ -4854,7 +4870,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{98E5BFE4-76EF-4674-A779-F31337CB9DDF}</c15:txfldGUID>
+                      <c15:txfldGUID>{BB026A33-B977-475E-9EC8-A2EB4C4B7064}</c15:txfldGUID>
                       <c15:f>Obliczenia!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4870,6 +4886,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$H$72</c:f>
@@ -4893,7 +4910,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AFD56239-9995-49A0-A31E-6B410043DD02}</c15:txfldGUID>
+                      <c15:txfldGUID>{0294E68E-06ED-4BEE-AEE6-A31FC4E4C95E}</c15:txfldGUID>
                       <c15:f>Obliczenia!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4909,6 +4926,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$I$72</c:f>
@@ -4932,7 +4950,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A5F6037D-95D9-4914-8008-502B4E238260}</c15:txfldGUID>
+                      <c15:txfldGUID>{7565FF6F-2FBB-4FC3-A9AB-A2212BB75923}</c15:txfldGUID>
                       <c15:f>Obliczenia!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4948,6 +4966,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$J$72</c:f>
@@ -4971,7 +4990,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{56C8885B-33BE-4B45-98CC-1C0882544D4A}</c15:txfldGUID>
+                      <c15:txfldGUID>{5C327988-1A96-42A7-89E2-A3F61BBA74F9}</c15:txfldGUID>
                       <c15:f>Obliczenia!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4987,6 +5006,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$K$72</c:f>
@@ -5010,7 +5030,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4F47BB1A-7C37-46D3-A6DF-27B04BC51157}</c15:txfldGUID>
+                      <c15:txfldGUID>{FB2AFDFB-29B3-42EF-AE6F-5004B730F540}</c15:txfldGUID>
                       <c15:f>Obliczenia!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5026,6 +5046,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$L$72</c:f>
@@ -5049,7 +5070,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8F5237FF-F552-4496-82CC-7EB229BD4226}</c15:txfldGUID>
+                      <c15:txfldGUID>{C3B04DA5-612F-4B82-ABF2-ED14C905F13C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5065,6 +5086,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$M$72</c:f>
@@ -5088,7 +5110,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{663C88C6-2DC5-4502-A6AE-9A487263AEB3}</c15:txfldGUID>
+                      <c15:txfldGUID>{3CE928E2-2875-47B1-8124-9ED1C511ADEB}</c15:txfldGUID>
                       <c15:f>Obliczenia!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5104,6 +5126,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$N$72</c:f>
@@ -5127,7 +5150,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C122D4F6-A94C-49C0-9AE7-1EB58788FC5E}</c15:txfldGUID>
+                      <c15:txfldGUID>{312199C8-81C4-4F8A-9182-47CCCEFA068A}</c15:txfldGUID>
                       <c15:f>Obliczenia!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5143,6 +5166,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$O$72</c:f>
@@ -5166,7 +5190,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{577A49FC-3CA5-4621-9BB8-277BA91E2BEB}</c15:txfldGUID>
+                      <c15:txfldGUID>{0042A2FC-EBD8-4DBB-AE16-ADE41625482A}</c15:txfldGUID>
                       <c15:f>Obliczenia!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5182,6 +5206,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$P$72</c:f>
@@ -5205,7 +5230,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9BDB1F05-0490-41E8-86C2-09DE65F8AFB0}</c15:txfldGUID>
+                      <c15:txfldGUID>{87D0C625-F8E6-4C1C-B04A-4CFCD35FB964}</c15:txfldGUID>
                       <c15:f>Obliczenia!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5221,6 +5246,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Q$72</c:f>
@@ -5244,7 +5270,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5564A27A-C8E2-40D5-8774-E8C839F6D2EB}</c15:txfldGUID>
+                      <c15:txfldGUID>{18E26001-8CBA-4F21-B6A2-53EFC45978F0}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5260,6 +5286,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$R$72</c:f>
@@ -5283,7 +5310,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{546EE44F-9D40-48F0-81AF-441A3BE6DCDF}</c15:txfldGUID>
+                      <c15:txfldGUID>{5547476C-1105-47AA-8351-E429C32AD525}</c15:txfldGUID>
                       <c15:f>Obliczenia!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5299,6 +5326,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$S$72</c:f>
@@ -5322,7 +5350,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A670565D-6FD0-4D0A-812B-508AB13CB3AB}</c15:txfldGUID>
+                      <c15:txfldGUID>{6D4FA778-B10C-49F1-B65F-6282CB917000}</c15:txfldGUID>
                       <c15:f>Obliczenia!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5338,6 +5366,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$T$72</c:f>
@@ -5361,7 +5390,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5D67A851-0189-47CA-A05D-AE71AD29C20E}</c15:txfldGUID>
+                      <c15:txfldGUID>{4981DD1B-116A-4408-A8AC-B2B0B5125963}</c15:txfldGUID>
                       <c15:f>Obliczenia!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5377,6 +5406,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$U$72</c:f>
@@ -5400,7 +5430,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B97754D-CA37-4E5B-B125-D68464F92EE0}</c15:txfldGUID>
+                      <c15:txfldGUID>{5F66A711-788D-472C-90A7-FE5F6264537A}</c15:txfldGUID>
                       <c15:f>Obliczenia!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5416,6 +5446,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$V$72</c:f>
@@ -5439,7 +5470,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{03B52842-D752-43B6-8639-E1369A83A7B1}</c15:txfldGUID>
+                      <c15:txfldGUID>{8B4EC5F9-7B3A-4A96-970B-304C3F9E18FC}</c15:txfldGUID>
                       <c15:f>Obliczenia!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5455,6 +5486,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$W$72</c:f>
@@ -5478,7 +5510,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{22E9D5B3-7A3B-4AFD-861B-F184E39BF1D5}</c15:txfldGUID>
+                      <c15:txfldGUID>{A156755F-C763-4A2D-8B55-1DE5547F257F}</c15:txfldGUID>
                       <c15:f>Obliczenia!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5494,6 +5526,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$X$72</c:f>
@@ -5517,7 +5550,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8C4B461A-7FFD-4370-A1C6-578D54531333}</c15:txfldGUID>
+                      <c15:txfldGUID>{92AA37A1-0B89-4E52-B05C-ACD924C76BB6}</c15:txfldGUID>
                       <c15:f>Obliczenia!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5533,6 +5566,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Y$72</c:f>
@@ -5556,7 +5590,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3DF7F8CD-12C3-4E14-82EA-F075EA74EB5F}</c15:txfldGUID>
+                      <c15:txfldGUID>{F6F2EC29-75B2-4B86-BF37-37D936CD45EF}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5572,6 +5606,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Z$72</c:f>
@@ -5595,7 +5630,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B21C1CFF-6643-41FA-B6E2-1D8077255EE8}</c15:txfldGUID>
+                      <c15:txfldGUID>{DE61D794-9D0C-41C2-AFA7-D6D2BBFD8D3C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5611,6 +5646,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AA$72</c:f>
@@ -5634,7 +5670,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C385FF6-65C5-49B2-A515-99C2A449983D}</c15:txfldGUID>
+                      <c15:txfldGUID>{208F1699-0818-4AF9-84CC-0D12C731698C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5650,6 +5686,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AB$72</c:f>
@@ -5673,7 +5710,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EAFAF699-072B-4403-A186-4A729D139898}</c15:txfldGUID>
+                      <c15:txfldGUID>{B046ACA6-0743-44D0-9053-B65C0C931D69}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5689,6 +5726,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AC$72</c:f>
@@ -5712,7 +5750,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7BC4C4EF-1E34-4CCC-8321-6540CDACD2E5}</c15:txfldGUID>
+                      <c15:txfldGUID>{E1A2D15E-CBAE-48E0-BBCB-435E1B78C11F}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5728,6 +5766,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AD$72</c:f>
@@ -5751,7 +5790,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{46748847-C536-4546-A338-2905F748D306}</c15:txfldGUID>
+                      <c15:txfldGUID>{A66A8ECD-479D-4141-B006-D40467022736}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5767,6 +5806,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AE$72</c:f>
@@ -5790,7 +5830,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{442B6EBB-D9FE-4248-8DB9-49502CA53EE9}</c15:txfldGUID>
+                      <c15:txfldGUID>{383C62BA-423D-4261-B4A0-34096A17623A}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5806,6 +5846,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AF$72</c:f>
@@ -5829,7 +5870,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F1AC4B58-E847-415D-9F5D-2D79F8A16977}</c15:txfldGUID>
+                      <c15:txfldGUID>{80199A71-294E-4152-8BBD-04445700C00C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5845,6 +5886,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AG$72</c:f>
@@ -5868,7 +5910,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B5316CE4-DEC0-4CF8-8144-6D7D0711B8D9}</c15:txfldGUID>
+                      <c15:txfldGUID>{2F9F572D-7F2F-4AAC-8A22-5B305D0892B2}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5884,6 +5926,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AH$72</c:f>
@@ -5907,7 +5950,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9DE182A5-0D86-4254-9F6E-30B99AD64D46}</c15:txfldGUID>
+                      <c15:txfldGUID>{347501BB-0D0F-4B62-A9C2-1B90F1906893}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6070,6 +6113,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$E$70</c:f>
@@ -6093,7 +6137,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9508B7A7-CEF9-4453-9649-10D8D2D8D997}</c15:txfldGUID>
+                      <c15:txfldGUID>{B168522A-DFB5-40DA-AA7B-8C4C1E1AF97C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6109,6 +6153,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$F$70</c:f>
@@ -6132,7 +6177,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4E646EC5-52A5-464A-AC9D-19182E21B2B8}</c15:txfldGUID>
+                      <c15:txfldGUID>{4965B560-8F59-4DCB-95D8-AB11380D74C9}</c15:txfldGUID>
                       <c15:f>Obliczenia!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6148,6 +6193,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$G$70</c:f>
@@ -6171,7 +6217,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{832489DC-DA0E-4440-B9BF-9A92233638C8}</c15:txfldGUID>
+                      <c15:txfldGUID>{6956F1FF-84FA-4312-A47B-7B165C95C7E5}</c15:txfldGUID>
                       <c15:f>Obliczenia!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6187,6 +6233,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$H$70</c:f>
@@ -6210,7 +6257,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C3828953-B2FB-4BC0-A573-200F6FB65FB0}</c15:txfldGUID>
+                      <c15:txfldGUID>{9EAA6D51-77EB-4B1D-B388-B25BB4BD76CD}</c15:txfldGUID>
                       <c15:f>Obliczenia!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6226,6 +6273,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$I$70</c:f>
@@ -6249,7 +6297,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ECDBCB79-82C7-495E-90A4-4033D2C58329}</c15:txfldGUID>
+                      <c15:txfldGUID>{ADBC4F8F-A033-42AE-8EFB-EE3504E7493E}</c15:txfldGUID>
                       <c15:f>Obliczenia!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6265,6 +6313,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$J$70</c:f>
@@ -6288,7 +6337,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B4713153-B802-4281-A028-64262596E5F5}</c15:txfldGUID>
+                      <c15:txfldGUID>{FB4ADA11-04D1-428E-BD90-6A7E5BF969F2}</c15:txfldGUID>
                       <c15:f>Obliczenia!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6304,6 +6353,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$K$70</c:f>
@@ -6327,7 +6377,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{99D3F386-658F-4E1F-9A03-760FB4C06398}</c15:txfldGUID>
+                      <c15:txfldGUID>{D972106E-3322-4CF5-B52A-52B430D2E524}</c15:txfldGUID>
                       <c15:f>Obliczenia!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6343,6 +6393,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$L$70</c:f>
@@ -6366,7 +6417,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{09BB47A4-B2DF-41DB-8DA6-8D99481DD4F2}</c15:txfldGUID>
+                      <c15:txfldGUID>{77DD1FC3-503F-42C7-8F73-B8A900694EEF}</c15:txfldGUID>
                       <c15:f>Obliczenia!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6382,6 +6433,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$M$70</c:f>
@@ -6405,7 +6457,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A75635B7-9471-461E-B153-F376ED670478}</c15:txfldGUID>
+                      <c15:txfldGUID>{D7BED2D9-CDAA-4F62-A76C-68624E23408A}</c15:txfldGUID>
                       <c15:f>Obliczenia!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6421,6 +6473,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$N$70</c:f>
@@ -6444,7 +6497,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DB8959F-7355-4C7B-BA3B-53E23F6F1F28}</c15:txfldGUID>
+                      <c15:txfldGUID>{F45FD288-ECF0-42DF-9C22-9DF6EF6B649C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6460,6 +6513,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$O$70</c:f>
@@ -6483,7 +6537,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{47943242-25EE-442D-A84C-FC56235CA4A0}</c15:txfldGUID>
+                      <c15:txfldGUID>{C35607A8-A320-4EA0-9FBB-4E1B38524DC7}</c15:txfldGUID>
                       <c15:f>Obliczenia!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6499,6 +6553,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$P$70</c:f>
@@ -6522,7 +6577,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{277313F5-DD8A-40F7-928B-42593C9842B2}</c15:txfldGUID>
+                      <c15:txfldGUID>{A1379E74-B34F-4D55-BDA8-92E08894334C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6538,6 +6593,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Q$70</c:f>
@@ -6561,7 +6617,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6CB1BB7A-7688-4031-8845-64C0DE20FF0C}</c15:txfldGUID>
+                      <c15:txfldGUID>{CE636C17-3E73-4F2A-81F4-9F034587F600}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6577,6 +6633,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$R$70</c:f>
@@ -6600,7 +6657,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{43CDCDFF-97EE-4D04-AF8A-A5481900DC37}</c15:txfldGUID>
+                      <c15:txfldGUID>{31C912F1-D552-4784-8037-AC4D2FEB0061}</c15:txfldGUID>
                       <c15:f>Obliczenia!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6616,6 +6673,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$S$70</c:f>
@@ -6639,7 +6697,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4F49B01D-42E4-4ADC-B274-560FFF2E9B32}</c15:txfldGUID>
+                      <c15:txfldGUID>{75D77B20-0D01-4652-9363-B126429FFB87}</c15:txfldGUID>
                       <c15:f>Obliczenia!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6655,6 +6713,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$T$70</c:f>
@@ -6678,7 +6737,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1355C2A7-EA4C-49EA-A8EB-44C3D26BAF31}</c15:txfldGUID>
+                      <c15:txfldGUID>{127A6448-E985-4F2C-AB21-6AA068377D98}</c15:txfldGUID>
                       <c15:f>Obliczenia!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6694,6 +6753,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$U$70</c:f>
@@ -6717,7 +6777,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{95240F3D-0452-4136-B3A2-371C60F6ADEA}</c15:txfldGUID>
+                      <c15:txfldGUID>{4D32B32E-8149-4B89-96A4-3A9C420B2EE4}</c15:txfldGUID>
                       <c15:f>Obliczenia!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6733,6 +6793,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$V$70</c:f>
@@ -6756,7 +6817,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AD0D972B-CF1C-48A9-BAD4-57948E383BCB}</c15:txfldGUID>
+                      <c15:txfldGUID>{BAC91638-8E26-47B8-B5FB-CEF202C61AC7}</c15:txfldGUID>
                       <c15:f>Obliczenia!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6772,6 +6833,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$W$70</c:f>
@@ -6795,7 +6857,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{76C5D664-3055-4AE2-A6F2-339AD6DDB01C}</c15:txfldGUID>
+                      <c15:txfldGUID>{D2E3A4DF-F519-45A5-BB00-086101634D46}</c15:txfldGUID>
                       <c15:f>Obliczenia!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6811,6 +6873,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$X$70</c:f>
@@ -6834,7 +6897,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CE10A0CA-FAE5-4BAF-A509-25050292B657}</c15:txfldGUID>
+                      <c15:txfldGUID>{6AACD463-E4E9-4F3A-97C3-A7681298A2D0}</c15:txfldGUID>
                       <c15:f>Obliczenia!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6850,6 +6913,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Y$70</c:f>
@@ -6873,7 +6937,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{17FA0249-5B45-4226-9A49-25F05F9D4893}</c15:txfldGUID>
+                      <c15:txfldGUID>{4DCCF964-9197-4900-B411-E4A1A915E7F9}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6889,6 +6953,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$Z$70</c:f>
@@ -6912,7 +6977,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E07E426A-F6D3-4D7A-87A4-AB9079A95210}</c15:txfldGUID>
+                      <c15:txfldGUID>{EFF48222-BEF9-4ADE-A0C1-EF3315376FB8}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6928,6 +6993,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AA$70</c:f>
@@ -6951,7 +7017,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AA5AE7FC-7204-429D-B552-3C160746ABFB}</c15:txfldGUID>
+                      <c15:txfldGUID>{231DC520-2809-489F-AD0C-97C36EB0AE8D}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6967,6 +7033,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AB$70</c:f>
@@ -6990,7 +7057,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D6FFF905-EC32-472A-A600-FB5C8370E2DA}</c15:txfldGUID>
+                      <c15:txfldGUID>{115C330D-92CD-455C-BAC5-60BD248177F6}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7006,6 +7073,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AC$70</c:f>
@@ -7029,7 +7097,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E5525BBC-8B55-4151-8927-2247F3F6CDEE}</c15:txfldGUID>
+                      <c15:txfldGUID>{E6BAF5EC-E579-4DE6-BFAC-F6EA2ED4870D}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7045,6 +7113,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AD$70</c:f>
@@ -7068,7 +7137,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C8896AC8-E1B0-4250-BBFD-1CADBCFA5050}</c15:txfldGUID>
+                      <c15:txfldGUID>{AB7453C4-3CD0-4039-9B7D-9CCC766780A1}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7084,6 +7153,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AE$70</c:f>
@@ -7107,7 +7177,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2956ECDC-79C7-4B12-AA48-AF0DC36FEB7A}</c15:txfldGUID>
+                      <c15:txfldGUID>{57AB32B7-63E9-4455-9023-D859A6B7487B}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7123,6 +7193,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AF$70</c:f>
@@ -7146,7 +7217,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{747D560F-B2BD-444E-90B5-8396357D6837}</c15:txfldGUID>
+                      <c15:txfldGUID>{204D7976-123D-4646-8531-3107E5763834}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7162,6 +7233,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AG$70</c:f>
@@ -7185,7 +7257,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7F4C5C23-C577-43F0-9730-AA73445FED79}</c15:txfldGUID>
+                      <c15:txfldGUID>{EA779D60-0A9A-4205-9FCD-48C148565655}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7201,6 +7273,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Obliczenia!$AH$70</c:f>
@@ -7224,7 +7297,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4D37F47-6DA8-4C5F-A670-F0F10CF0C9AB}</c15:txfldGUID>
+                      <c15:txfldGUID>{D8D39187-BADB-49BB-90B9-4903FE17248E}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7629,11 +7702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142656640"/>
-        <c:axId val="142658176"/>
+        <c:axId val="256568760"/>
+        <c:axId val="256569544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142656640"/>
+        <c:axId val="256568760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7656,7 +7729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142658176"/>
+        <c:crossAx val="256569544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7664,7 +7737,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142658176"/>
+        <c:axId val="256569544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7676,7 +7749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142656640"/>
+        <c:crossAx val="256568760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7763,7 +7836,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Pasek przewijania " hidden="1">
+            <xdr:cNvPr id="1025" name="Pasek przewijania " descr="Click the scroll bar to modify the project time frame shown on the Timeline Chart or enter the start date for the display of project activities in cell D20." hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -7772,7 +7845,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7780,6 +7853,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7791,23 +7870,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Oś czasu projektu"/>
-      <sheetName val="Obliczenia"/>
-      <sheetName val="Oś czasu projektu12"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8077,8 +8139,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8150,7 +8212,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8159,14 +8221,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" s="19">
         <f>D20</f>
         <v>41883</v>
       </c>
       <c r="E23" s="19">
-        <f>[1]!Działania[[#This Row],[ROZPOCZĘCIE]]</f>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]</f>
         <v>41883</v>
       </c>
       <c r="F23" s="14" t="s">
@@ -8218,10 +8280,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="19">
+        <f>E25+1</f>
+        <v>41902</v>
+      </c>
+      <c r="E26" s="19">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
+        <v>41909</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
@@ -8232,12 +8304,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="19">
-        <f>E25+1</f>
-        <v>41902</v>
+        <f>E26+1</f>
+        <v>41910</v>
       </c>
       <c r="E27" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41909</v>
+        <v>41917</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>20</v>
@@ -8249,7 +8321,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D28" s="19">
         <f>D25</f>
@@ -8260,7 +8332,7 @@
         <v>41950</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8269,7 +8341,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="19">
         <f>D25</f>
@@ -8280,7 +8352,7 @@
         <v>41898</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8289,7 +8361,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="19">
         <f>E29+1</f>
@@ -8300,7 +8372,7 @@
         <v>41906</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8309,7 +8381,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="19">
         <f>E30+1</f>
@@ -8320,7 +8392,7 @@
         <v>41914</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8329,7 +8401,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="19">
         <f>E31+1</f>
@@ -8340,7 +8412,7 @@
         <v>41922</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8349,7 +8421,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="19">
         <f>E32+1</f>
@@ -8360,7 +8432,7 @@
         <v>41930</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8369,7 +8441,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="19">
         <f t="shared" ref="D34:D36" si="2">D33+8</f>
@@ -8380,7 +8452,7 @@
         <v>41938</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8389,7 +8461,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="19">
         <f t="shared" si="2"/>
@@ -8400,7 +8472,7 @@
         <v>41946</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8409,7 +8481,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="19">
         <f t="shared" si="2"/>
@@ -8420,7 +8492,7 @@
         <v>41954</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8429,15 +8501,15 @@
         <v>15</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D37" s="19">
         <f>E27+6</f>
-        <v>41915</v>
+        <v>41923</v>
       </c>
       <c r="E37" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
-        <v>41929</v>
+        <v>41937</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>20</v>
@@ -8449,7 +8521,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" s="21">
         <f>E28+3</f>
@@ -8460,7 +8532,7 @@
         <v>41959</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8469,15 +8541,15 @@
         <v>17</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D39" s="19">
         <f>E37+5</f>
-        <v>41934</v>
+        <v>41942</v>
       </c>
       <c r="E39" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+22</f>
-        <v>41956</v>
+        <v>41964</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>20</v>
@@ -8489,7 +8561,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D40" s="21">
         <f>E38+1</f>
@@ -8500,7 +8572,7 @@
         <v>41966</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8509,15 +8581,15 @@
         <v>19</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D41" s="19">
         <f>E39+1</f>
-        <v>41957</v>
+        <v>41965</v>
       </c>
       <c r="E41" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+11</f>
-        <v>41968</v>
+        <v>41976</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>20</v>
@@ -8529,18 +8601,18 @@
         <v>20</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="21">
         <f>E41+3</f>
-        <v>41971</v>
+        <v>41979</v>
       </c>
       <c r="E42" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+13</f>
-        <v>41984</v>
+        <v>41992</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8549,7 +8621,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D43" s="21">
         <f>E40+1</f>
@@ -8560,7 +8632,7 @@
         <v>41981</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8644,7 +8716,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41912</v>
+        <v>41923</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8677,7 +8749,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)) )</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8696,7 +8768,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8729,9 +8801,9 @@
         <f t="array" ref="E15">INDEX(Działania[Identyfikator],MATCH(1, ((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
         <v>1</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F15">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -8742,7 +8814,7 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -8753,23 +8825,23 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E17)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E18)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
@@ -8779,7 +8851,7 @@
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E20">
         <f t="array" ref="E20">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E19)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
@@ -8789,7 +8861,7 @@
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E21">
         <f t="array" ref="E21">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E20)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
@@ -8799,7 +8871,7 @@
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E22">
         <f t="array" ref="E22">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E21)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
@@ -8807,9 +8879,9 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E23" t="e">
+      <c r="E23">
         <f t="array" ref="E23">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E22)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
@@ -8995,17 +9067,17 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="e">
+      <c r="C32">
         <f t="shared" ref="C32:C40" ca="1" si="2">F15</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C32,Działania[Identyfikator],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+        <v>Przygotowanie platofrmy Github</v>
+      </c>
+      <c r="E32">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>11.3</v>
       </c>
       <c r="F32" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9138,11 +9210,11 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C33,Działania[Identyfikator],0))</f>
-        <v>Przygotowanie platofrmy Github</v>
+        <v>Diagram Gantta</v>
       </c>
       <c r="E33">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9279,87 +9351,87 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C34,Działania[Identyfikator],0))</f>
-        <v>Diagram Gantta</v>
-      </c>
-      <c r="E34">
+        <v>Strona powitalna</v>
+      </c>
+      <c r="E34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M34">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="N34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W34">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="X34" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9420,11 +9492,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C35,Działania[Identyfikator],0))</f>
-        <v>Strona powitalna</v>
+        <v>Zaprojektowanie modelu bazy danych</v>
       </c>
       <c r="E35" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9458,81 +9530,81 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="N35">
+      <c r="Y35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="O35">
+      <c r="Z35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="P35">
+      <c r="AA35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q35">
+      <c r="AB35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="R35">
+      <c r="AC35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="S35">
+      <c r="AD35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="T35">
+      <c r="AE35">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>8.3000000000000007</v>
-      </c>
-      <c r="U35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="V35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="W35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="X35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE35" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
       </c>
       <c r="AF35" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9643,53 +9715,53 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="X36">
+      <c r="X36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF36">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="Y36">
+      <c r="AG36">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="Z36">
+      <c r="AH36">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="AA36">
+      <c r="AI36">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>7.3000000000000007</v>
-      </c>
-      <c r="AB36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AC36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AD36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AE36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AF36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
@@ -9706,7 +9778,7 @@
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C37,Działania[Identyfikator],0))</f>
-        <v>Skrypt do obrazów</v>
+        <v>Skrypt galerii</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10379,17 +10451,17 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C44" t="e">
+      <c r="C44">
         <f ca="1">C32</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="e">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C44,Działania[Identyfikator],0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" t="e">
+        <v>PRZYGOTOWANIE PLATOFRMY GITHUB</v>
+      </c>
+      <c r="E44">
         <f t="shared" ref="E44:AH44" ca="1" si="5">IF(ISERROR(F32),E32,NA())</f>
-        <v>#N/A</v>
+        <v>11.3</v>
       </c>
       <c r="F44" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -10511,11 +10583,11 @@
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C45">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C45,Działania[Identyfikator],0)))</f>
-        <v>PRZYGOTOWANIE PLATOFRMY GITHUB</v>
+        <v>DIAGRAM GANTTA</v>
       </c>
       <c r="E45">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
@@ -10641,15 +10713,15 @@
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C46">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C46,Działania[Identyfikator],0)))</f>
-        <v>DIAGRAM GANTTA</v>
-      </c>
-      <c r="E46">
+        <v>STRONA POWITALNA</v>
+      </c>
+      <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="F46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10719,9 +10791,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="W46" t="e">
+      <c r="W46">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="X46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10771,11 +10843,11 @@
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C47,Działania[Identyfikator],0)))</f>
-        <v>STRONA POWITALNA</v>
+        <v>ZAPROJEKTOWANIE MODELU BAZY DANYCH</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10849,41 +10921,41 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="W47">
+      <c r="W47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE47">
         <f t="shared" ca="1" si="9"/>
         <v>8.3000000000000007</v>
-      </c>
-      <c r="X47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="AF47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -11011,9 +11083,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AE48">
+      <c r="AE48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AF48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11035,7 +11107,7 @@
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C49,Działania[Identyfikator],0)))</f>
-        <v>SKRYPT DO OBRAZÓW</v>
+        <v>SKRYPT GALERII</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -11790,9 +11862,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="AH56">
+      <c r="AH56" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -21,7 +21,7 @@
     <definedName name="Okno_Dni">Obliczenia!$D$29</definedName>
     <definedName name="Okno_Przesunięcie">Obliczenia!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -3258,15 +3258,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3619,15 +3610,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -7702,11 +7684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256568760"/>
-        <c:axId val="256569544"/>
+        <c:axId val="109785088"/>
+        <c:axId val="109786624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256568760"/>
+        <c:axId val="109785088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7729,7 +7711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256569544"/>
+        <c:crossAx val="109786624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7737,7 +7719,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256569544"/>
+        <c:axId val="109786624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7749,7 +7731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256568760"/>
+        <c:crossAx val="109785088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7836,7 +7818,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Pasek przewijania " descr="Click the scroll bar to modify the project time frame shown on the Timeline Chart or enter the start date for the display of project activities in cell D20." hidden="1">
+            <xdr:cNvPr id="1025" name="Pasek przewijania " hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -7845,7 +7827,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7853,12 +7835,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -8139,8 +8115,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8372,7 +8348,7 @@
         <v>41906</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8392,7 +8368,7 @@
         <v>41914</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8432,7 +8408,7 @@
         <v>41930</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8716,7 +8692,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41923</v>
+        <v>41928</v>
       </c>
       <c r="E3" s="1"/>
     </row>

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -21,12 +21,12 @@
     <definedName name="Okno_Dni">Obliczenia!$D$29</definedName>
     <definedName name="Okno_Przesunięcie">Obliczenia!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Działanie</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Automove Cursor</t>
+  </si>
+  <si>
+    <t>Strona konfiguracji CMS</t>
+  </si>
+  <si>
+    <t>Some additional features</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -761,7 +767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PRZYGOTOWANIE PLATOFRMY GITHUB</c:v>
+                  <c:v>#N/D!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -810,7 +816,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1049,7 +1055,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1152,7 +1158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIAGRAM GANTTA</c:v>
+                  <c:v>#N/D!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1234,6 +1240,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1245,7 +1252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1508,37 +1515,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1587,7 +1594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STRONA POWITALNA</c:v>
+                  <c:v>#N/D!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,7 +1721,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1956,28 +1963,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -2002,7 +2009,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ZAPROJEKTOWANIE MODELU BAZY DANYCH</c:v>
+                  <c:v>#N/D!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2129,7 +2136,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -2290,7 +2297,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2371,13 +2378,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2400,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PANEL LOGOWANIA</c:v>
+                  <c:v>INTEGRACJA FANCYBOX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2429,7 +2436,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2461,7 +2470,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2610,19 +2619,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.3000000000000007</c:v>
@@ -2652,43 +2661,43 @@
                   <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,7 +2713,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKRYPT GALERII</c:v>
+                  <c:v>DYNAMICZNE ODKRYWANIE TREŚCI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2842,6 +2851,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -2860,6 +2878,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2919,7 +2938,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -3011,22 +3030,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -3035,28 +3054,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -3114,7 +3133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WYMAGANIE FUNKCJONALNE/NIEFUNKCJONALNE</c:v>
+                  <c:v>USUWANIE PLIKÓW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3200,6 +3219,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -3229,6 +3257,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
@@ -3258,6 +3295,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3276,6 +3322,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3302,7 +3349,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -3332,7 +3379,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -3445,28 +3492,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -3475,28 +3522,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>#N/A</c:v>
@@ -3530,7 +3577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIAGRAM PRZYPADKÓW UŻYCIA</c:v>
+                  <c:v>STRONA KONFIGURACJI CMS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3581,6 +3628,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
@@ -3610,6 +3666,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3628,6 +3693,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3678,7 +3744,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -3708,7 +3774,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>#N/A</c:v>
@@ -3830,43 +3896,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,7 +3948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DIAGRAM SEKWENCJI</c:v>
+                  <c:v>SOME ADDITIONAL FEATURES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3919,6 +3985,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4002,7 +4069,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4159,7 +4226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wrz 2014</c:v>
+                  <c:v>gru 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4268,7 +4335,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4284,7 +4351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>paź 2014</c:v>
+                  <c:v>sty 2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4393,7 +4460,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4409,7 +4476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>paź 2014</c:v>
+                  <c:v>sty 2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4564,7 +4631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wrz 2014</c:v>
+                  <c:v>gru 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4629,7 +4696,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -4755,86 +4822,6 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>01</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{56356C43-C82B-4D1C-8E01-7DCA25864E81}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$E$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>01</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$F$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>02</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6A4C7AA1-012B-441A-9438-2E2A00643ABF}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$F$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>02</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$G$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
                       <c:v>03</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4852,8 +4839,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BB026A33-B977-475E-9EC8-A2EB4C4B7064}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$G$72</c15:f>
+                      <c15:txfldGUID>{0C87F563-5AFB-4AD4-81F7-D371C299A64C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4867,11 +4854,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="1"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$H$72</c:f>
+                  <c:f>Obliczenia!$F$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4892,8 +4879,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0294E68E-06ED-4BEE-AEE6-A31FC4E4C95E}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$H$72</c15:f>
+                      <c15:txfldGUID>{9EC48C84-0C7C-4B90-95CC-6834239C8F3C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4907,11 +4894,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="2"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$I$72</c:f>
+                  <c:f>Obliczenia!$G$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4932,8 +4919,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7565FF6F-2FBB-4FC3-A9AB-A2212BB75923}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$I$72</c15:f>
+                      <c15:txfldGUID>{C7BA032D-498E-4042-BB79-8D977CD703B4}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4947,11 +4934,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$J$72</c:f>
+                  <c:f>Obliczenia!$H$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4972,8 +4959,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5C327988-1A96-42A7-89E2-A3F61BBA74F9}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$J$72</c15:f>
+                      <c15:txfldGUID>{A59111A5-397E-4537-A880-895FC9A48FEF}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4987,11 +4974,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$K$72</c:f>
+                  <c:f>Obliczenia!$I$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5012,8 +4999,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FB2AFDFB-29B3-42EF-AE6F-5004B730F540}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$K$72</c15:f>
+                      <c15:txfldGUID>{52E87571-83FA-4FF5-99DE-5E5B0DE2D6C4}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5027,11 +5014,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$L$72</c:f>
+                  <c:f>Obliczenia!$J$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5052,8 +5039,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C3B04DA5-612F-4B82-ABF2-ED14C905F13C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$L$72</c15:f>
+                      <c15:txfldGUID>{1DDBEFB4-BF30-4055-9060-97995D097400}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5067,11 +5054,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$M$72</c:f>
+                  <c:f>Obliczenia!$K$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5092,8 +5079,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3CE928E2-2875-47B1-8124-9ED1C511ADEB}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$M$72</c15:f>
+                      <c15:txfldGUID>{DCF943AF-D33B-4658-95CC-47816B7E7A1E}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5107,11 +5094,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$N$72</c:f>
+                  <c:f>Obliczenia!$L$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5132,8 +5119,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{312199C8-81C4-4F8A-9182-47CCCEFA068A}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$N$72</c15:f>
+                      <c15:txfldGUID>{E4F2FD26-7E14-452F-9F24-146C802224BA}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5147,11 +5134,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$O$72</c:f>
+                  <c:f>Obliczenia!$M$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5172,8 +5159,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0042A2FC-EBD8-4DBB-AE16-ADE41625482A}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$O$72</c15:f>
+                      <c15:txfldGUID>{5D97B651-5A77-4426-9D3B-A553187BC0E7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5187,11 +5174,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$P$72</c:f>
+                  <c:f>Obliczenia!$N$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5212,8 +5199,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{87D0C625-F8E6-4C1C-B04A-4CFCD35FB964}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$P$72</c15:f>
+                      <c15:txfldGUID>{1A3F0C5C-D4BE-4FAA-888F-DE77D2953EE2}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5227,11 +5214,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Q$72</c:f>
+                  <c:f>Obliczenia!$O$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5252,8 +5239,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{18E26001-8CBA-4F21-B6A2-53EFC45978F0}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Q$72</c15:f>
+                      <c15:txfldGUID>{72DC2106-DE5C-46FE-9771-0C10ECC53951}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5267,11 +5254,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$R$72</c:f>
+                  <c:f>Obliczenia!$P$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5292,8 +5279,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5547476C-1105-47AA-8351-E429C32AD525}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$R$72</c15:f>
+                      <c15:txfldGUID>{30A47FF4-AD93-4F48-B62B-90D27D5E92FC}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5307,11 +5294,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$S$72</c:f>
+                  <c:f>Obliczenia!$Q$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5332,8 +5319,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D4FA778-B10C-49F1-B65F-6282CB917000}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$S$72</c15:f>
+                      <c15:txfldGUID>{1861E195-4300-491D-BA36-0A0DBFF81811}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5347,11 +5334,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$T$72</c:f>
+                  <c:f>Obliczenia!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5372,8 +5359,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4981DD1B-116A-4408-A8AC-B2B0B5125963}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$T$72</c15:f>
+                      <c15:txfldGUID>{26E7DE6E-41B1-49E3-AE19-8332C06ED825}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5387,11 +5374,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$U$72</c:f>
+                  <c:f>Obliczenia!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5412,8 +5399,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F66A711-788D-472C-90A7-FE5F6264537A}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$U$72</c15:f>
+                      <c15:txfldGUID>{2CFA8ABB-06C9-49E2-B554-975A258C7D87}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5427,11 +5414,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$V$72</c:f>
+                  <c:f>Obliczenia!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5452,8 +5439,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8B4EC5F9-7B3A-4A96-970B-304C3F9E18FC}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$V$72</c15:f>
+                      <c15:txfldGUID>{3C1D61DF-D5C1-4607-935F-13DEEAB92210}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5467,11 +5454,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$W$72</c:f>
+                  <c:f>Obliczenia!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5492,8 +5479,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A156755F-C763-4A2D-8B55-1DE5547F257F}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$W$72</c15:f>
+                      <c15:txfldGUID>{AE03ACD7-526D-4D6D-9574-73E39C553608}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5507,11 +5494,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$X$72</c:f>
+                  <c:f>Obliczenia!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5532,8 +5519,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{92AA37A1-0B89-4E52-B05C-ACD924C76BB6}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$X$72</c15:f>
+                      <c15:txfldGUID>{7B3580AF-D609-4854-9D39-03A75BD5CF8B}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5547,11 +5534,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Y$72</c:f>
+                  <c:f>Obliczenia!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5572,8 +5559,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F6F2EC29-75B2-4B86-BF37-37D936CD45EF}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Y$72</c15:f>
+                      <c15:txfldGUID>{13E98C6F-4A5D-4C76-A4C8-BDA08C93F297}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5587,11 +5574,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Z$72</c:f>
+                  <c:f>Obliczenia!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5612,8 +5599,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DE61D794-9D0C-41C2-AFA7-D6D2BBFD8D3C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Z$72</c15:f>
+                      <c15:txfldGUID>{E53834A9-14C3-4CD2-8F8C-BCD3EEB31972}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5627,11 +5614,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AA$72</c:f>
+                  <c:f>Obliczenia!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5652,8 +5639,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{208F1699-0818-4AF9-84CC-0D12C731698C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AA$72</c15:f>
+                      <c15:txfldGUID>{8179C4CC-F240-441D-81DF-A5CE96EFC45D}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5667,11 +5654,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AB$72</c:f>
+                  <c:f>Obliczenia!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5692,8 +5679,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B046ACA6-0743-44D0-9053-B65C0C931D69}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AB$72</c15:f>
+                      <c15:txfldGUID>{A3B6D02A-BD61-48D0-B662-4E9BDF9DB573}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5707,11 +5694,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AC$72</c:f>
+                  <c:f>Obliczenia!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5732,8 +5719,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E1A2D15E-CBAE-48E0-BBCB-435E1B78C11F}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AC$72</c15:f>
+                      <c15:txfldGUID>{DD87CA4B-26BF-46D8-B50C-EA287121A223}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5747,11 +5734,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AD$72</c:f>
+                  <c:f>Obliczenia!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5772,8 +5759,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A66A8ECD-479D-4141-B006-D40467022736}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AD$72</c15:f>
+                      <c15:txfldGUID>{4B4BED57-F494-41D9-86CF-5A9D52D9225E}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5787,11 +5774,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AE$72</c:f>
+                  <c:f>Obliczenia!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5812,8 +5799,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{383C62BA-423D-4261-B4A0-34096A17623A}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AE$72</c15:f>
+                      <c15:txfldGUID>{4DDC0E9D-3B86-4884-8773-673F1AFF27F1}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5827,11 +5814,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AF$72</c:f>
+                  <c:f>Obliczenia!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5852,8 +5839,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{80199A71-294E-4152-8BBD-04445700C00C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AF$72</c15:f>
+                      <c15:txfldGUID>{77E72D93-7250-4964-9E8D-394F823B2500}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5867,11 +5854,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AG$72</c:f>
+                  <c:f>Obliczenia!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5892,8 +5879,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2F9F572D-7F2F-4AAC-8A22-5B305D0892B2}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AG$72</c15:f>
+                      <c15:txfldGUID>{1D894A3B-A222-4CFB-A0B0-3EC4243841D3}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5907,11 +5894,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AH$72</c:f>
+                  <c:f>Obliczenia!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5932,12 +5919,92 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{347501BB-0D0F-4B62-A9C2-1B90F1906893}</c15:txfldGUID>
+                      <c15:txfldGUID>{B2AD3F60-D33C-401D-9A09-1643506130E1}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AF$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>30</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$AG$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>31</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D6DEA820-A997-437C-9A4E-A7C692585B49}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AG$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>31</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$AH$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>01</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E2145D4F-A24A-4DB8-BFFF-F8DF3AD2550C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>30</c:v>
+                          <c:v>01</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6102,6 +6169,206 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>ŚR</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{8CC9E7F9-46FD-48D1-B4D1-1722D664D1FE}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>ŚR</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>CZ</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FE73B447-F29A-4A9A-ABE7-1BC0448D27DB}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>CZ</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>PT</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{03F60D0D-A22A-4608-96B3-C80B16877E93}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$G$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>PT</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$H$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SO</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{78D77C41-57C3-4D10-BED8-4D4522163287}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$H$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SO</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$I$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>N</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{C501B34E-4427-4991-8BA9-97CDC9497AD0}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$I$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>N</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$J$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>PN</c:v>
                     </c:pt>
                   </c:strCache>
@@ -6119,8 +6386,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B168522A-DFB5-40DA-AA7B-8C4C1E1AF97C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$E$70</c15:f>
+                      <c15:txfldGUID>{C16F7DE6-A459-4629-9B9F-E0EF27CF55E4}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6134,11 +6401,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$F$70</c:f>
+                  <c:f>Obliczenia!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6159,8 +6426,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4965B560-8F59-4DCB-95D8-AB11380D74C9}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$F$70</c15:f>
+                      <c15:txfldGUID>{369CC72D-9405-4E0D-A093-036BF2E509F8}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6174,11 +6441,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$G$70</c:f>
+                  <c:f>Obliczenia!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6199,8 +6466,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6956F1FF-84FA-4312-A47B-7B165C95C7E5}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$G$70</c15:f>
+                      <c15:txfldGUID>{CBE141EA-2460-42BF-A233-EFDF90253DB6}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6214,11 +6481,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$H$70</c:f>
+                  <c:f>Obliczenia!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6239,8 +6506,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9EAA6D51-77EB-4B1D-B388-B25BB4BD76CD}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$H$70</c15:f>
+                      <c15:txfldGUID>{59C21EC7-D7A2-4687-B8E6-C0780AF990D9}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6254,11 +6521,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$I$70</c:f>
+                  <c:f>Obliczenia!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6279,8 +6546,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ADBC4F8F-A033-42AE-8EFB-EE3504E7493E}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$I$70</c15:f>
+                      <c15:txfldGUID>{6FE3F264-797C-4C21-809C-822402C91DE2}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6294,11 +6561,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$J$70</c:f>
+                  <c:f>Obliczenia!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6319,8 +6586,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FB4ADA11-04D1-428E-BD90-6A7E5BF969F2}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$J$70</c15:f>
+                      <c15:txfldGUID>{5965A9ED-51A3-4872-878D-7C4F2B0C63ED}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6334,11 +6601,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$K$70</c:f>
+                  <c:f>Obliczenia!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6359,8 +6626,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D972106E-3322-4CF5-B52A-52B430D2E524}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$K$70</c15:f>
+                      <c15:txfldGUID>{FFC27110-831B-44C8-AFC2-1DB766BB4867}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6374,11 +6641,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$L$70</c:f>
+                  <c:f>Obliczenia!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6399,8 +6666,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{77DD1FC3-503F-42C7-8F73-B8A900694EEF}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$L$70</c15:f>
+                      <c15:txfldGUID>{47AE073F-6D3D-4D63-BFA9-81A8FDB1B604}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6414,11 +6681,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$M$70</c:f>
+                  <c:f>Obliczenia!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6439,8 +6706,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D7BED2D9-CDAA-4F62-A76C-68624E23408A}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$M$70</c15:f>
+                      <c15:txfldGUID>{8A29ED8D-5E12-4F5F-9097-F074F0C5F7E7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6454,11 +6721,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$N$70</c:f>
+                  <c:f>Obliczenia!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6479,8 +6746,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F45FD288-ECF0-42DF-9C22-9DF6EF6B649C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$N$70</c15:f>
+                      <c15:txfldGUID>{80A59B3A-2774-4189-9DA4-A6744331F5A7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6494,11 +6761,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$O$70</c:f>
+                  <c:f>Obliczenia!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6519,8 +6786,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C35607A8-A320-4EA0-9FBB-4E1B38524DC7}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$O$70</c15:f>
+                      <c15:txfldGUID>{A15B4416-7567-4B40-BD01-4A5EDB23A30B}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6534,11 +6801,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$P$70</c:f>
+                  <c:f>Obliczenia!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6559,8 +6826,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A1379E74-B34F-4D55-BDA8-92E08894334C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$P$70</c15:f>
+                      <c15:txfldGUID>{B04DBBAD-6EAB-454A-A7D0-0F2088AA32EE}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6574,11 +6841,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Q$70</c:f>
+                  <c:f>Obliczenia!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6599,8 +6866,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CE636C17-3E73-4F2A-81F4-9F034587F600}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Q$70</c15:f>
+                      <c15:txfldGUID>{4A2FFA1C-59E7-41BE-BF75-3BCBD4CAFA96}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6614,11 +6881,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$R$70</c:f>
+                  <c:f>Obliczenia!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6639,8 +6906,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31C912F1-D552-4784-8037-AC4D2FEB0061}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$R$70</c15:f>
+                      <c15:txfldGUID>{9A6ABFEB-5FF5-4FE1-8360-400E915348D8}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6654,11 +6921,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$S$70</c:f>
+                  <c:f>Obliczenia!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6679,8 +6946,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75D77B20-0D01-4652-9363-B126429FFB87}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$S$70</c15:f>
+                      <c15:txfldGUID>{E00C4928-5D12-4EC2-BDC0-9B3A9A43319C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6694,11 +6961,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$T$70</c:f>
+                  <c:f>Obliczenia!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6719,8 +6986,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{127A6448-E985-4F2C-AB21-6AA068377D98}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$T$70</c15:f>
+                      <c15:txfldGUID>{D7A5239C-184D-4A68-8C3A-F376BDCC70D7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6734,11 +7001,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$U$70</c:f>
+                  <c:f>Obliczenia!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6759,8 +7026,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4D32B32E-8149-4B89-96A4-3A9C420B2EE4}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$U$70</c15:f>
+                      <c15:txfldGUID>{C8572A59-FADE-4922-9072-8BB6CA888930}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6774,11 +7041,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$V$70</c:f>
+                  <c:f>Obliczenia!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6799,8 +7066,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BAC91638-8E26-47B8-B5FB-CEF202C61AC7}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$V$70</c15:f>
+                      <c15:txfldGUID>{ACF4C6C3-0B66-4605-8FB2-284A331D3B07}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6814,11 +7081,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$W$70</c:f>
+                  <c:f>Obliczenia!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6839,8 +7106,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D2E3A4DF-F519-45A5-BB00-086101634D46}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$W$70</c15:f>
+                      <c15:txfldGUID>{A9AE208A-C683-42D3-9026-D5FCC2511B31}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6854,11 +7121,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$X$70</c:f>
+                  <c:f>Obliczenia!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6879,8 +7146,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6AACD463-E4E9-4F3A-97C3-A7681298A2D0}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$X$70</c15:f>
+                      <c15:txfldGUID>{C606F989-65F5-47E9-A965-4514F6FD46B5}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6894,11 +7161,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Y$70</c:f>
+                  <c:f>Obliczenia!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6919,8 +7186,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DCCF964-9197-4900-B411-E4A1A915E7F9}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Y$70</c15:f>
+                      <c15:txfldGUID>{CAE333CC-460F-4D8F-9A11-5CAD72A11688}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6934,11 +7201,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Z$70</c:f>
+                  <c:f>Obliczenia!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6959,8 +7226,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EFF48222-BEF9-4ADE-A0C1-EF3315376FB8}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Z$70</c15:f>
+                      <c15:txfldGUID>{BF66C4EA-91BE-4783-B13E-7398D4923899}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6974,11 +7241,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AA$70</c:f>
+                  <c:f>Obliczenia!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6999,8 +7266,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{231DC520-2809-489F-AD0C-97C36EB0AE8D}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AA$70</c15:f>
+                      <c15:txfldGUID>{96C794BF-51AC-4248-8331-6E49FFC19799}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7014,11 +7281,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AB$70</c:f>
+                  <c:f>Obliczenia!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7039,8 +7306,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{115C330D-92CD-455C-BAC5-60BD248177F6}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AB$70</c15:f>
+                      <c15:txfldGUID>{3DD4A902-8D71-4D52-AA8F-7954E5C6EE2C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7054,11 +7321,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AC$70</c:f>
+                  <c:f>Obliczenia!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7079,212 +7346,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E6BAF5EC-E579-4DE6-BFAC-F6EA2ED4870D}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AC$70</c15:f>
+                      <c15:txfldGUID>{89E6F2E8-32F4-4E2F-BEE5-B2D1ECB9DCB6}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>CZ</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AD$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>PT</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AB7453C4-3CD0-4039-9B7D-9CCC766780A1}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AD$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>PT</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AE$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SO</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{57AB32B7-63E9-4455-9023-D859A6B7487B}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AE$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SO</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AF$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>N</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{204D7976-123D-4646-8531-3107E5763834}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AF$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>N</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>PN</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EA779D60-0A9A-4205-9FCD-48C148565655}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>PN</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>WT</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D8D39187-BADB-49BB-90B9-4903FE17248E}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>WT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7433,7 +7500,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wrz 2014 - Top Band</c:v>
+                  <c:v>gru 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7542,7 +7609,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7558,7 +7625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>paź 2014 - Top Band</c:v>
+                  <c:v>sty 2015 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7667,7 +7734,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7684,11 +7751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109785088"/>
-        <c:axId val="109786624"/>
+        <c:axId val="187020416"/>
+        <c:axId val="187020976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109785088"/>
+        <c:axId val="187020416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7711,7 +7778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109786624"/>
+        <c:crossAx val="187020976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7719,7 +7786,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109786624"/>
+        <c:axId val="187020976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7731,7 +7798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109785088"/>
+        <c:crossAx val="187020416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7766,7 +7833,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="Okno_Przesunięcie" horiz="1" max="100" noThreeD="1" page="7" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="Okno_Przesunięcie" horiz="1" max="100" noThreeD="1" page="7" val="93"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7818,7 +7885,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Pasek przewijania " hidden="1">
+            <xdr:cNvPr id="1025" name="Pasek przewijania " descr="Click the scroll bar to modify the project time frame shown on the Timeline Chart or enter the start date for the display of project activities in cell D20." hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -7827,7 +7894,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7835,6 +7902,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7859,8 +7932,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Działania" displayName="Działania" ref="B22:F44" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B22:F44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Działania" displayName="Działania" ref="B22:F45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B22:F45"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -8113,10 +8186,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8616,10 +8689,40 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="21">
+        <f>E43+1</f>
+        <v>41982</v>
+      </c>
+      <c r="E44" s="21">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
+        <v>41989</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8">
+        <f>N(B44)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="21">
+        <f>E44+4</f>
+        <v>41993</v>
+      </c>
+      <c r="E45" s="21">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
+        <v>42000</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8692,7 +8795,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41928</v>
+        <v>41931</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8725,7 +8828,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)) )</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8744,7 +8847,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8775,93 +8878,93 @@
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Działania[Identyfikator],MATCH(1, ((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E15)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>2</v>
-      </c>
-      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E16)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>3</v>
-      </c>
-      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="F17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E17)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>4</v>
-      </c>
-      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="F18" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E18)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E20">
+      <c r="E20" t="e">
         <f t="array" ref="E20">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E19)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E21">
+      <c r="E21" t="e">
         <f t="array" ref="E21">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E20)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E22">
+      <c r="E22" t="e">
         <f t="array" ref="E22">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E21)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>8</v>
+        <v>#N/A</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E23">
+      <c r="E23" t="e">
         <f t="array" ref="E23">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E22)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>9</v>
+        <v>#N/A</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -8870,7 +8973,7 @@
       </c>
       <c r="D25" s="1">
         <f>DataRozpoczęcia+Okno_Przesunięcie</f>
-        <v>41883</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -8878,7 +8981,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
@@ -8913,127 +9016,127 @@
       </c>
       <c r="E31" s="1">
         <f>DataRozpoczęciaWindow</f>
-        <v>41883</v>
+        <v>41976</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>41884</v>
+        <v>41977</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>41885</v>
+        <v>41978</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>41886</v>
+        <v>41979</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>41887</v>
+        <v>41980</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>41888</v>
+        <v>41981</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>41889</v>
+        <v>41982</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>41890</v>
+        <v>41983</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>41891</v>
+        <v>41984</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>41892</v>
+        <v>41985</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>41893</v>
+        <v>41986</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>41894</v>
+        <v>41987</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>41895</v>
+        <v>41988</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>41896</v>
+        <v>41989</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>41897</v>
+        <v>41990</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>41898</v>
+        <v>41991</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>41899</v>
+        <v>41992</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>41900</v>
+        <v>41993</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>41901</v>
+        <v>41994</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>41902</v>
+        <v>41995</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>41903</v>
+        <v>41996</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41997</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>41998</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>41906</v>
+        <v>41999</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>41907</v>
+        <v>42000</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>41908</v>
+        <v>42001</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>41909</v>
+        <v>42002</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>41910</v>
+        <v>42003</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>41911</v>
+        <v>42004</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>41912</v>
+        <v>42005</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>41913</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -9043,17 +9146,17 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="e">
         <f t="shared" ref="C32:C40" ca="1" si="2">F15</f>
-        <v>1</v>
-      </c>
-      <c r="D32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C32,Działania[Identyfikator],0))</f>
-        <v>Przygotowanie platofrmy Github</v>
-      </c>
-      <c r="E32">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>11.3</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="F32" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9184,17 +9287,17 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C33,Działania[Identyfikator],0))</f>
-        <v>Diagram Gantta</v>
-      </c>
-      <c r="E33">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>10.3</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="F33" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9325,13 +9428,13 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C34,Działania[Identyfikator],0))</f>
-        <v>Strona powitalna</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9365,49 +9468,49 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="M34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="N34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="Q34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="R34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="S34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="T34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="U34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="V34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="W34">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>9.3000000000000007</v>
+      <c r="M34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W34" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="X34" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9466,13 +9569,13 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C35,Działania[Identyfikator],0))</f>
-        <v>Zaprojektowanie modelu bazy danych</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9550,37 +9653,37 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="X35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Y35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Z35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AA35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AB35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AC35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AD35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AE35">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>8.3000000000000007</v>
+      <c r="X35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE35" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="AF35" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9609,15 +9712,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C36,Działania[Identyfikator],0))</f>
-        <v>Panel Logowania</v>
-      </c>
-      <c r="E36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+        <v>Integracja Fancybox</v>
+      </c>
+      <c r="E36">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>7.3000000000000007</v>
       </c>
       <c r="F36" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9723,21 +9826,21 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="AF36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AG36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AH36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="AI36">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>7.3000000000000007</v>
+      <c r="AF36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI36" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
@@ -9750,11 +9853,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C37,Działania[Identyfikator],0))</f>
-        <v>Skrypt galerii</v>
+        <v>Dynamiczne odkrywanie treści</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9768,25 +9871,25 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="H37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="H37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="I37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="K37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="L37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="M37">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9824,61 +9927,61 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="V37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="W37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="X37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="Y37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="Z37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AA37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AB37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AC37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AD37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AE37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AF37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AG37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AH37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AI37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
+      <c r="V37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -9891,35 +9994,35 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C38,Działania[Identyfikator],0))</f>
-        <v>Wymaganie funkcjonalne/niefunkcjonalne</v>
-      </c>
-      <c r="E38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+        <v>Usuwanie plików</v>
+      </c>
+      <c r="E38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="F38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="G38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="I38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="J38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
       </c>
       <c r="K38" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9929,37 +10032,37 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="M38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="N38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="O38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="P38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="Q38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="R38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="S38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="T38">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>5.3000000000000007</v>
+      <c r="M38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="U38" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10032,11 +10135,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C39,Działania[Identyfikator],0))</f>
-        <v>Diagram przypadków użycia</v>
+        <v>Strona konfiguracji CMS</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10062,37 +10165,37 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="K39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="K39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="L39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="M39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="N39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="O39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="P39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="Q39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="R39">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="S39" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10102,37 +10205,37 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="U39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="V39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="W39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="X39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="Y39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="Z39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AA39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AB39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
+      <c r="U39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="AC39" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10173,11 +10276,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C40,Działania[Identyfikator],0))</f>
-        <v>Diagram sekwencji</v>
+        <v>Some additional features</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10247,197 +10350,197 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="V40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="V40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="W40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="X40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="Y40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="Z40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="AA40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="AB40">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AC40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="AD40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AE40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AF40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AG40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AH40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AI40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
+      <c r="AD40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>41883</v>
+        <v>41976</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>41884</v>
+        <v>41977</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>41885</v>
+        <v>41978</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>41886</v>
+        <v>41979</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>41887</v>
+        <v>41980</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>41888</v>
+        <v>41981</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>41889</v>
+        <v>41982</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>41890</v>
+        <v>41983</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>41891</v>
+        <v>41984</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>41892</v>
+        <v>41985</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>41893</v>
+        <v>41986</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>41894</v>
+        <v>41987</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>41895</v>
+        <v>41988</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>41896</v>
+        <v>41989</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>41897</v>
+        <v>41990</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>41898</v>
+        <v>41991</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>41899</v>
+        <v>41992</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>41900</v>
+        <v>41993</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>41901</v>
+        <v>41994</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>41902</v>
+        <v>41995</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>41903</v>
+        <v>41996</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41997</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>41998</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>41906</v>
+        <v>41999</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>41907</v>
+        <v>42000</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>41908</v>
+        <v>42001</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>41909</v>
+        <v>42002</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>41910</v>
+        <v>42003</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>41911</v>
+        <v>42004</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>41912</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C44">
+      <c r="C44" t="e">
         <f ca="1">C32</f>
-        <v>1</v>
-      </c>
-      <c r="D44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C44,Działania[Identyfikator],0)))</f>
-        <v>PRZYGOTOWANIE PLATOFRMY GITHUB</v>
-      </c>
-      <c r="E44">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
         <f t="shared" ref="E44:AH44" ca="1" si="5">IF(ISERROR(F32),E32,NA())</f>
-        <v>11.3</v>
+        <v>#N/A</v>
       </c>
       <c r="F44" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -10557,17 +10660,17 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C45">
+      <c r="C45" t="e">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>2</v>
-      </c>
-      <c r="D45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C45,Działania[Identyfikator],0)))</f>
-        <v>DIAGRAM GANTTA</v>
-      </c>
-      <c r="E45">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" t="e">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
-        <v>10.3</v>
+        <v>#N/A</v>
       </c>
       <c r="F45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10687,13 +10790,13 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C46">
+      <c r="C46" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="D46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C46,Działania[Identyfikator],0)))</f>
-        <v>STRONA POWITALNA</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
@@ -10767,9 +10870,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="W46">
+      <c r="W46" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="X46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10817,13 +10920,13 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C47">
+      <c r="C47" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C47,Działania[Identyfikator],0)))</f>
-        <v>ZAPROJEKTOWANIE MODELU BAZY DANYCH</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10929,9 +11032,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AF47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10949,15 +11052,15 @@
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C48,Działania[Identyfikator],0)))</f>
-        <v>PANEL LOGOWANIA</v>
-      </c>
-      <c r="E48" t="e">
+        <v>INTEGRACJA FANCYBOX</v>
+      </c>
+      <c r="E48">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="F48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11079,11 +11182,11 @@
     <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C49,Działania[Identyfikator],0)))</f>
-        <v>SKRYPT GALERII</v>
+        <v>DYNAMICZNE ODKRYWANIE TREŚCI</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -11149,9 +11252,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="U49" t="e">
+      <c r="U49">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="V49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -11209,11 +11312,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C50,Działania[Identyfikator],0)))</f>
-        <v>WYMAGANIE FUNKCJONALNE/NIEFUNKCJONALNE</v>
+        <v>USUWANIE PLIKÓW</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11235,9 +11338,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="J50" t="e">
+      <c r="J50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="K50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -11275,9 +11378,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="T50">
+      <c r="T50" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="U50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -11339,11 +11442,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C51,Działania[Identyfikator],0)))</f>
-        <v>DIAGRAM PRZYPADKÓW UŻYCIA</v>
+        <v>STRONA KONFIGURACJI CMS</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -11397,9 +11500,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R51" t="e">
+      <c r="R51">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="S51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11437,9 +11540,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AC51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11469,11 +11572,11 @@
     <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C52,Działania[Identyfikator],0)))</f>
-        <v>DIAGRAM SEKWENCJI</v>
+        <v>SOME ADDITIONAL FEATURES</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11571,9 +11674,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="AC52" t="e">
+      <c r="AC52">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AD52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11599,123 +11702,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>41883</v>
+        <v>41976</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>41884</v>
+        <v>41977</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>41885</v>
+        <v>41978</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>41886</v>
+        <v>41979</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>41887</v>
+        <v>41980</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>41888</v>
+        <v>41981</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>41889</v>
+        <v>41982</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>41890</v>
+        <v>41983</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>41891</v>
+        <v>41984</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>41892</v>
+        <v>41985</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>41893</v>
+        <v>41986</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>41894</v>
+        <v>41987</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>41895</v>
+        <v>41988</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>41896</v>
+        <v>41989</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>41897</v>
+        <v>41990</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>41898</v>
+        <v>41991</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>41899</v>
+        <v>41992</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>41900</v>
+        <v>41993</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>41901</v>
+        <v>41994</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>41902</v>
+        <v>41995</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>41903</v>
+        <v>41996</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>41904</v>
+        <v>41997</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>41905</v>
+        <v>41998</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>41906</v>
+        <v>41999</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>41907</v>
+        <v>42000</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>41908</v>
+        <v>42001</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>41909</v>
+        <v>42002</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>41910</v>
+        <v>42003</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>41911</v>
+        <v>42004</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>41912</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
@@ -11846,7 +11949,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D58" s="3">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="E58">
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11964,15 +12067,15 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="AH58">
+      <c r="AH58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="str">
         <f>TEXT(D58,"mmm rrrr") &amp; " - Top Band"</f>
-        <v>wrz 2014 - Top Band</v>
+        <v>gru 2014 - Top Band</v>
       </c>
       <c r="E59">
         <f>E58+12.5</f>
@@ -12090,9 +12193,9 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AH59">
+      <c r="AH59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="3:34" x14ac:dyDescent="0.2">
@@ -12101,7 +12204,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D61" s="3">
         <f>EOMONTH(D58,0)+1</f>
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="E61" t="e">
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -12219,15 +12322,15 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="AH61" t="e">
+      <c r="AH61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="str">
         <f>TEXT(D61,"mmm rrrr") &amp; " - Top Band"</f>
-        <v>paź 2014 - Top Band</v>
+        <v>sty 2015 - Top Band</v>
       </c>
       <c r="E62" t="e">
         <f>E61+12.5</f>
@@ -12345,9 +12448,9 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="AH62" t="e">
+      <c r="AH62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="3:34" x14ac:dyDescent="0.2">
@@ -12356,15 +12459,15 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D65" s="3">
         <f>D58+1</f>
-        <v>41884</v>
+        <v>41975</v>
       </c>
       <c r="E65" t="e">
         <f>IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="e">
         <f t="shared" ref="F65:AH66" si="21">IF(MEDIAN($D65,F$55)=F$55,0.5,NA())</f>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="G65" t="e">
         <f t="shared" si="21"/>
@@ -12482,7 +12585,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D66" s="3">
         <f>D61+1</f>
-        <v>41914</v>
+        <v>42006</v>
       </c>
       <c r="E66" t="e">
         <f>IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12732,123 +12835,123 @@
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>PN</v>
+        <v>ŚR</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>WT</v>
+        <v>CZ</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>PT</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>SO</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>N</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PN</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>WT</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>ŚR</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>CZ</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>PT</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>SO</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>N</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PN</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>WT</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>ŚR</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>CZ</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>PT</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>SO</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>N</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PN</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>WT</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>ŚR</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>CZ</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>PT</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>SO</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>N</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PN</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>WT</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>ŚR</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>CZ</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.2">
@@ -12975,123 +13078,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>08</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>10</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>11</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -21,12 +21,12 @@
     <definedName name="Okno_Dni">Obliczenia!$D$29</definedName>
     <definedName name="Okno_Przesunięcie">Obliczenia!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Działanie</t>
   </si>
@@ -103,25 +103,16 @@
     <t>Diagram sekwencji</t>
   </si>
   <si>
-    <t>Diagramy komunikacji</t>
-  </si>
-  <si>
     <t>Diagramy czynności</t>
   </si>
   <si>
     <t>Diagramy przeglądu interakcji</t>
   </si>
   <si>
-    <t>Diagramy harmonogramowania</t>
-  </si>
-  <si>
     <t>Diagram pakietów</t>
   </si>
   <si>
     <t>KTO</t>
-  </si>
-  <si>
-    <t>Magda</t>
   </si>
   <si>
     <t>Adam i Mateusz</t>
@@ -164,6 +155,18 @@
   </si>
   <si>
     <t>Some additional features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramy maszyny stanów </t>
+  </si>
+  <si>
+    <t>Diagram klas</t>
+  </si>
+  <si>
+    <t>Daigram komponentów</t>
+  </si>
+  <si>
+    <t>Damian i Mateusz</t>
   </si>
 </sst>
 </file>
@@ -2851,15 +2854,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3219,15 +3213,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -3257,15 +3242,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
@@ -3295,15 +3271,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3628,15 +3595,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
@@ -3666,15 +3624,6 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -7751,11 +7700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187020416"/>
-        <c:axId val="187020976"/>
+        <c:axId val="129346944"/>
+        <c:axId val="134616192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187020416"/>
+        <c:axId val="129346944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7778,7 +7727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187020976"/>
+        <c:crossAx val="134616192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7786,7 +7735,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187020976"/>
+        <c:axId val="134616192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7798,7 +7747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187020416"/>
+        <c:crossAx val="129346944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7885,7 +7834,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Pasek przewijania " descr="Click the scroll bar to modify the project time frame shown on the Timeline Chart or enter the start date for the display of project activities in cell D20." hidden="1">
+            <xdr:cNvPr id="1025" name="Pasek przewijania " hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -7894,7 +7843,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7902,12 +7851,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7932,8 +7875,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Działania" displayName="Działania" ref="B22:F45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B22:F45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Działania" displayName="Działania" ref="B22:F46" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B22:F46"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -8186,10 +8129,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8261,7 +8204,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8270,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="19">
         <f>D20</f>
@@ -8301,7 +8244,7 @@
         <v>41883</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8330,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="19">
         <f>E25+1</f>
@@ -8370,7 +8313,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" s="19">
         <f>D25</f>
@@ -8381,12 +8324,12 @@
         <v>41950</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15">
-        <f t="shared" ref="B29:B34" si="1">N(B28)+1</f>
+        <f t="shared" ref="B29:B33" si="1">N(B28)+1</f>
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -8401,7 +8344,7 @@
         <v>41898</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8421,7 +8364,7 @@
         <v>41906</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8441,7 +8384,7 @@
         <v>41914</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8461,7 +8404,7 @@
         <v>41922</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8470,235 +8413,235 @@
         <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D33" s="19">
         <f>E32+1</f>
         <v>41923</v>
       </c>
       <c r="E33" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41930</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+5</f>
+        <v>41928</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="15">
-        <f t="shared" si="1"/>
+        <f>N(B33)+1</f>
         <v>12</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="19">
-        <f t="shared" ref="D34:D36" si="2">D33+8</f>
+        <f>E33+1</f>
+        <v>41929</v>
+      </c>
+      <c r="E34" s="19">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+1</f>
+        <v>41930</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15">
+        <f>N(B33)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D33+8</f>
         <v>41931</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
         <v>41938</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8">
-        <f t="shared" ref="B35:B39" si="3">N(B34)+1</f>
-        <v>13</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="19">
-        <f t="shared" si="2"/>
-        <v>41939</v>
-      </c>
-      <c r="E35" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41946</v>
-      </c>
       <c r="F35" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" ref="B36:B40" si="2">N(B35)+1</f>
+        <v>13</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" si="2"/>
-        <v>41947</v>
+        <f t="shared" ref="D36:D37" si="3">D35+8</f>
+        <v>41939</v>
       </c>
       <c r="E36" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41954</v>
+        <v>41946</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="19">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="19">
-        <f>E27+6</f>
-        <v>41923</v>
+        <v>41947</v>
       </c>
       <c r="E37" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
-        <v>41937</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
+        <v>41954</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="21">
-        <f>E28+3</f>
-        <v>41953</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="19">
+        <f>E27+6</f>
+        <v>41923</v>
       </c>
       <c r="E38" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+6</f>
-        <v>41959</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>32</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
+        <v>41937</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="19">
-        <f>E37+5</f>
-        <v>41942</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="21">
+        <f>E28+3</f>
+        <v>41953</v>
       </c>
       <c r="E39" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+22</f>
-        <v>41964</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>20</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+6</f>
+        <v>41959</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
-        <f t="shared" ref="B40:B44" si="4">N(B39)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="21">
-        <f>E38+1</f>
-        <v>41960</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="19">
+        <f>E38+5</f>
+        <v>41942</v>
       </c>
       <c r="E40" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+6</f>
-        <v>41966</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>32</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+22</f>
+        <v>41964</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="19">
+        <f t="shared" ref="B41:B45" si="4">N(B40)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="21">
         <f>E39+1</f>
-        <v>41965</v>
+        <v>41960</v>
       </c>
       <c r="E41" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+11</f>
-        <v>41976</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>20</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+6</f>
+        <v>41966</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
         <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="19">
+        <f>E40+1</f>
+        <v>41965</v>
+      </c>
+      <c r="E42" s="19">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+11</f>
+        <v>41976</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="21">
-        <f>E41+3</f>
-        <v>41979</v>
-      </c>
-      <c r="E42" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+13</f>
-        <v>41992</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D43" s="21">
-        <f>E40+1</f>
-        <v>41967</v>
+        <f>E42+3</f>
+        <v>41979</v>
       </c>
       <c r="E43" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
-        <v>41981</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+13</f>
+        <v>41992</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D44" s="21">
-        <f>E43+1</f>
-        <v>41982</v>
-      </c>
-      <c r="E44" s="21">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41989</v>
+        <f>E41+1</f>
+        <v>41967</v>
+      </c>
+      <c r="E44" s="19">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
+        <v>41981</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>20</v>
@@ -8706,21 +8649,41 @@
     </row>
     <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
-        <f>N(B44)+1</f>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="21">
-        <f>E44+4</f>
-        <v>41993</v>
+        <f>E44+1</f>
+        <v>41982</v>
       </c>
       <c r="E45" s="21">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
+        <v>41989</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8">
+        <f>N(B45)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="21">
+        <f>E45+4</f>
+        <v>41993</v>
+      </c>
+      <c r="E46" s="21">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
         <v>42000</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F46" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8795,7 +8758,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41931</v>
+        <v>41940</v>
       </c>
       <c r="E3" s="1"/>
     </row>

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -109,9 +109,6 @@
     <t>Diagramy przeglądu interakcji</t>
   </si>
   <si>
-    <t>Diagram pakietów</t>
-  </si>
-  <si>
     <t>KTO</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Some additional features</t>
+  </si>
+  <si>
+    <t>Diagram obiektów</t>
   </si>
   <si>
     <t xml:space="preserve">Diagramy maszyny stanów </t>
@@ -8132,7 +8132,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8204,7 +8204,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="19">
         <f>D20</f>
@@ -8273,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="19">
         <f>E25+1</f>
@@ -8313,7 +8313,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="19">
         <f>D25</f>
@@ -8324,7 +8324,7 @@
         <v>41950</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8344,7 +8344,7 @@
         <v>41898</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8364,7 +8364,7 @@
         <v>41906</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8384,7 +8384,7 @@
         <v>41914</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8404,7 +8404,7 @@
         <v>41922</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8424,7 +8424,7 @@
         <v>41928</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8444,7 +8444,7 @@
         <v>41930</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8464,7 +8464,7 @@
         <v>41938</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>41946</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8493,7 +8493,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D37" s="19">
         <f t="shared" si="3"/>
@@ -8504,7 +8504,7 @@
         <v>41954</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8513,7 +8513,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="19">
         <f>E27+6</f>
@@ -8533,7 +8533,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="21">
         <f>E28+3</f>
@@ -8544,7 +8544,7 @@
         <v>41959</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8553,7 +8553,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="19">
         <f>E38+5</f>
@@ -8573,7 +8573,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="21">
         <f>E39+1</f>
@@ -8584,7 +8584,7 @@
         <v>41966</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8593,7 +8593,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="19">
         <f>E40+1</f>
@@ -8613,7 +8613,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="21">
         <f>E42+3</f>
@@ -8624,7 +8624,7 @@
         <v>41992</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8633,7 +8633,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="21">
         <f>E41+1</f>
@@ -8653,7 +8653,7 @@
         <v>22</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="21">
         <f>E44+1</f>
@@ -8673,7 +8673,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="21">
         <f>E45+4</f>

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -21,12 +21,12 @@
     <definedName name="Okno_Dni">Obliczenia!$D$29</definedName>
     <definedName name="Okno_Przesunięcie">Obliczenia!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Działanie</t>
   </si>
@@ -130,16 +130,10 @@
     <t>Zaprojektowanie modelu bazy danych</t>
   </si>
   <si>
-    <t>Upload plików[Drag and Drop]</t>
-  </si>
-  <si>
     <t>Połączenie funkcji składowych z bazą danych</t>
   </si>
   <si>
     <t>Autoscroll[Centrowanie]</t>
-  </si>
-  <si>
-    <t>Dynamiczne odkrywanie treści</t>
   </si>
   <si>
     <t>Skrypt galerii</t>
@@ -167,6 +161,9 @@
   </si>
   <si>
     <t>Damian i Mateusz</t>
+  </si>
+  <si>
+    <t>Upload plików</t>
   </si>
 </sst>
 </file>
@@ -2303,13 +2300,13 @@
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2403,7 +2400,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INTEGRACJA FANCYBOX</c:v>
+                  <c:v>SKRYPT GALERII</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2473,16 +2470,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2613,13 +2610,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.3000000000000007</c:v>
@@ -2637,31 +2634,31 @@
                   <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -2716,7 +2713,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DYNAMICZNE ODKRYWANIE TREŚCI</c:v>
+                  <c:v>DIAGRAM OBIEKTÓW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2854,6 +2851,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -2905,7 +2911,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2932,7 +2938,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -3024,16 +3030,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.3000000000000007</c:v>
@@ -3042,37 +3048,37 @@
                   <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -3127,7 +3133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USUWANIE PLIKÓW</c:v>
+                  <c:v>POŁĄCZENIE FUNKCJI SKŁADOWYCH Z BAZĄ DANYCH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3213,6 +3219,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
@@ -3242,6 +3257,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
@@ -3271,6 +3295,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3316,40 +3349,40 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -3459,58 +3492,58 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="22">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>#N/A</c:v>
@@ -3544,7 +3577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STRONA KONFIGURACJI CMS</c:v>
+                  <c:v>AUTOMOVE CURSOR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3595,6 +3628,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
@@ -3624,6 +3666,15 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3693,37 +3744,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>#N/A</c:v>
@@ -3845,43 +3896,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,7 +3948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SOME ADDITIONAL FEATURES</c:v>
+                  <c:v>INTEGRACJA FANCYBOX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4018,7 +4069,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4175,7 +4226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gru 2014</c:v>
+                  <c:v>lis 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4278,10 +4329,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -4300,7 +4351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sty 2015</c:v>
+                  <c:v>gru 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4403,10 +4454,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.5</c:v>
@@ -4425,7 +4476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sty 2015</c:v>
+                  <c:v>gru 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4561,7 +4612,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -4580,7 +4631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gru 2014</c:v>
+                  <c:v>lis 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4771,46 +4822,6 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>03</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C87F563-5AFB-4AD4-81F7-D371C299A64C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$E$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>03</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$F$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
                       <c:v>04</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4828,8 +4839,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9EC48C84-0C7C-4B90-95CC-6834239C8F3C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$F$72</c15:f>
+                      <c15:txfldGUID>{261E4B3A-986E-4A60-9BE2-EF0D816252AE}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4843,11 +4854,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="1"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$G$72</c:f>
+                  <c:f>Obliczenia!$F$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4868,8 +4879,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C7BA032D-498E-4042-BB79-8D977CD703B4}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$G$72</c15:f>
+                      <c15:txfldGUID>{94EA9045-B4E9-4E96-8FDB-91103131BAB7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4883,11 +4894,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="2"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$H$72</c:f>
+                  <c:f>Obliczenia!$G$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4908,8 +4919,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A59111A5-397E-4537-A880-895FC9A48FEF}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$H$72</c15:f>
+                      <c15:txfldGUID>{AC8A79CA-9B79-4EFF-BCE5-92C17AEE587E}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4923,11 +4934,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$I$72</c:f>
+                  <c:f>Obliczenia!$H$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4948,8 +4959,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{52E87571-83FA-4FF5-99DE-5E5B0DE2D6C4}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$I$72</c15:f>
+                      <c15:txfldGUID>{C8B9C1D6-E97E-41BA-B64A-78A63FCBD30C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4963,11 +4974,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$J$72</c:f>
+                  <c:f>Obliczenia!$I$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4988,8 +4999,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1DDBEFB4-BF30-4055-9060-97995D097400}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$J$72</c15:f>
+                      <c15:txfldGUID>{A4A28C3F-130D-4E4A-863F-68B297423A59}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5003,11 +5014,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$K$72</c:f>
+                  <c:f>Obliczenia!$J$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5028,8 +5039,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DCF943AF-D33B-4658-95CC-47816B7E7A1E}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$K$72</c15:f>
+                      <c15:txfldGUID>{C2FC7AD3-1F68-42AD-BFAA-45370816ADE3}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5043,11 +5054,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$L$72</c:f>
+                  <c:f>Obliczenia!$K$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5068,8 +5079,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4F2FD26-7E14-452F-9F24-146C802224BA}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$L$72</c15:f>
+                      <c15:txfldGUID>{5C64E06A-AC32-4533-8410-BD0EFF8CD3E9}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5083,11 +5094,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$M$72</c:f>
+                  <c:f>Obliczenia!$L$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5108,8 +5119,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5D97B651-5A77-4426-9D3B-A553187BC0E7}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$M$72</c15:f>
+                      <c15:txfldGUID>{DC88BD05-40BC-4065-A9E1-AF6935794588}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5123,11 +5134,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$N$72</c:f>
+                  <c:f>Obliczenia!$M$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5148,8 +5159,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1A3F0C5C-D4BE-4FAA-888F-DE77D2953EE2}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$N$72</c15:f>
+                      <c15:txfldGUID>{875874DB-C9C4-4EF8-811C-301AFCCE0702}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5163,11 +5174,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$O$72</c:f>
+                  <c:f>Obliczenia!$N$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5188,8 +5199,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{72DC2106-DE5C-46FE-9771-0C10ECC53951}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$O$72</c15:f>
+                      <c15:txfldGUID>{942A04E1-F856-4031-A788-B1A498D5B781}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5203,11 +5214,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$P$72</c:f>
+                  <c:f>Obliczenia!$O$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5228,8 +5239,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{30A47FF4-AD93-4F48-B62B-90D27D5E92FC}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$P$72</c15:f>
+                      <c15:txfldGUID>{5F57C981-AB74-4C53-A1E8-BAF72A034D27}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5243,11 +5254,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Q$72</c:f>
+                  <c:f>Obliczenia!$P$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5268,8 +5279,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1861E195-4300-491D-BA36-0A0DBFF81811}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Q$72</c15:f>
+                      <c15:txfldGUID>{6EC00F08-7DC3-4A5A-99F9-E8A8EA415E44}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5283,11 +5294,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$R$72</c:f>
+                  <c:f>Obliczenia!$Q$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5308,8 +5319,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{26E7DE6E-41B1-49E3-AE19-8332C06ED825}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$R$72</c15:f>
+                      <c15:txfldGUID>{2055DF06-20F7-4F00-95B5-0A998CA5799F}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5323,11 +5334,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$S$72</c:f>
+                  <c:f>Obliczenia!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5348,8 +5359,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2CFA8ABB-06C9-49E2-B554-975A258C7D87}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$S$72</c15:f>
+                      <c15:txfldGUID>{ACAC35D7-5CFF-4983-B6FA-EC75662FD40C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5363,11 +5374,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$T$72</c:f>
+                  <c:f>Obliczenia!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5388,8 +5399,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C1D61DF-D5C1-4607-935F-13DEEAB92210}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$T$72</c15:f>
+                      <c15:txfldGUID>{3C28E4E1-4844-4AC3-84CE-C06E04D798D6}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5403,11 +5414,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$U$72</c:f>
+                  <c:f>Obliczenia!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5428,8 +5439,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AE03ACD7-526D-4D6D-9574-73E39C553608}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$U$72</c15:f>
+                      <c15:txfldGUID>{BBFECE19-2B66-400C-BD76-47701429B95C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5443,11 +5454,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$V$72</c:f>
+                  <c:f>Obliczenia!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5468,8 +5479,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B3580AF-D609-4854-9D39-03A75BD5CF8B}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$V$72</c15:f>
+                      <c15:txfldGUID>{C2AA7C5E-B04E-4F31-9C58-ADC5C8D169C7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5483,11 +5494,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$W$72</c:f>
+                  <c:f>Obliczenia!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5508,8 +5519,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{13E98C6F-4A5D-4C76-A4C8-BDA08C93F297}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$W$72</c15:f>
+                      <c15:txfldGUID>{8171AA74-9ECA-4BD0-9DD9-BCCF2DF3B966}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5523,11 +5534,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$X$72</c:f>
+                  <c:f>Obliczenia!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5548,8 +5559,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E53834A9-14C3-4CD2-8F8C-BCD3EEB31972}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$X$72</c15:f>
+                      <c15:txfldGUID>{E820371D-3426-43DB-985D-69B5D4E8AD4C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5563,11 +5574,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Y$72</c:f>
+                  <c:f>Obliczenia!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5588,8 +5599,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8179C4CC-F240-441D-81DF-A5CE96EFC45D}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Y$72</c15:f>
+                      <c15:txfldGUID>{B3C4D615-A377-45BA-BB63-C0875F5CD424}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5603,11 +5614,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Z$72</c:f>
+                  <c:f>Obliczenia!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5628,8 +5639,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A3B6D02A-BD61-48D0-B662-4E9BDF9DB573}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Z$72</c15:f>
+                      <c15:txfldGUID>{A54AD2DD-891C-439D-95D2-5876DF5F9990}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5643,11 +5654,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AA$72</c:f>
+                  <c:f>Obliczenia!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5668,8 +5679,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DD87CA4B-26BF-46D8-B50C-EA287121A223}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AA$72</c15:f>
+                      <c15:txfldGUID>{B5979802-0891-4BA9-AC95-797AB7306BB7}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5683,11 +5694,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AB$72</c:f>
+                  <c:f>Obliczenia!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5708,8 +5719,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B4BED57-F494-41D9-86CF-5A9D52D9225E}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AB$72</c15:f>
+                      <c15:txfldGUID>{105AC6FD-8C1F-458B-B078-936C05DA3E65}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5723,11 +5734,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AC$72</c:f>
+                  <c:f>Obliczenia!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5748,8 +5759,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DDC0E9D-3B86-4884-8773-673F1AFF27F1}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AC$72</c15:f>
+                      <c15:txfldGUID>{19595963-0547-4F82-A58F-391A052B3874}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5763,11 +5774,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AD$72</c:f>
+                  <c:f>Obliczenia!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5788,8 +5799,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{77E72D93-7250-4964-9E8D-394F823B2500}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AD$72</c15:f>
+                      <c15:txfldGUID>{8F359FFA-8BD2-4F63-8348-F14293F01CBA}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5803,11 +5814,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AE$72</c:f>
+                  <c:f>Obliczenia!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5828,8 +5839,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1D894A3B-A222-4CFB-A0B0-3EC4243841D3}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AE$72</c15:f>
+                      <c15:txfldGUID>{149D42E7-D85A-472A-BF9F-7EFDEBFA12F5}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5843,11 +5854,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AF$72</c:f>
+                  <c:f>Obliczenia!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5868,8 +5879,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B2AD3F60-D33C-401D-9A09-1643506130E1}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AF$72</c15:f>
+                      <c15:txfldGUID>{597F8291-38AD-47E7-A4BF-2826BE18DA3E}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5883,51 +5894,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>31</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D6DEA820-A997-437C-9A4E-A7C692585B49}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>31</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AH$72</c:f>
+                  <c:f>Obliczenia!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5948,12 +5919,92 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E2145D4F-A24A-4DB8-BFFF-F8DF3AD2550C}</c15:txfldGUID>
+                      <c15:txfldGUID>{3F12AF6D-1241-4ABE-AE1F-EC846CDE2E01}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AF$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>01</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$AG$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>02</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E34F84B9-7662-4330-AC03-1F1AAC74B4B1}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AG$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>02</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$AH$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>03</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B4889AAF-096F-47FD-AEC5-AFB417B6D604}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>01</c:v>
+                          <c:v>03</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6118,6 +6169,46 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>WT</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{77663FA3-02B8-402A-BAA3-6F0CF854E5F4}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>WT</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Obliczenia!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>ŚR</c:v>
                     </c:pt>
                   </c:strCache>
@@ -6135,8 +6226,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8CC9E7F9-46FD-48D1-B4D1-1722D664D1FE}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$E$70</c15:f>
+                      <c15:txfldGUID>{6D26A751-E572-45AF-B912-9D3FA769FF4C}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6150,11 +6241,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$F$70</c:f>
+                  <c:f>Obliczenia!$G$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6175,8 +6266,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FE73B447-F29A-4A9A-ABE7-1BC0448D27DB}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$F$70</c15:f>
+                      <c15:txfldGUID>{6224B71B-9F36-484D-A50F-7889F8A3B620}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6190,11 +6281,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$G$70</c:f>
+                  <c:f>Obliczenia!$H$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6215,8 +6306,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{03F60D0D-A22A-4608-96B3-C80B16877E93}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$G$70</c15:f>
+                      <c15:txfldGUID>{30542745-A23A-4CE0-AA25-5D8985A8C17F}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6230,11 +6321,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$H$70</c:f>
+                  <c:f>Obliczenia!$I$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6255,8 +6346,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{78D77C41-57C3-4D10-BED8-4D4522163287}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$H$70</c15:f>
+                      <c15:txfldGUID>{C70544DE-D670-4429-B968-8668022DDD87}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6270,11 +6361,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$I$70</c:f>
+                  <c:f>Obliczenia!$J$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6295,8 +6386,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C501B34E-4427-4991-8BA9-97CDC9497AD0}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$I$70</c15:f>
+                      <c15:txfldGUID>{E3633320-CD11-4843-B468-606A0F2AF0B1}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6310,11 +6401,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$J$70</c:f>
+                  <c:f>Obliczenia!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6335,8 +6426,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C16F7DE6-A459-4629-9B9F-E0EF27CF55E4}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$J$70</c15:f>
+                      <c15:txfldGUID>{62144FDB-54C5-4E4C-85F9-2EAEDB2286A2}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6350,11 +6441,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$K$70</c:f>
+                  <c:f>Obliczenia!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6375,8 +6466,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{369CC72D-9405-4E0D-A093-036BF2E509F8}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$K$70</c15:f>
+                      <c15:txfldGUID>{BFC5B40B-E457-4204-9E87-0460706BC193}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6390,11 +6481,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$L$70</c:f>
+                  <c:f>Obliczenia!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6415,8 +6506,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CBE141EA-2460-42BF-A233-EFDF90253DB6}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$L$70</c15:f>
+                      <c15:txfldGUID>{9450BBCC-E265-4775-911A-077A69151891}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6430,11 +6521,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$M$70</c:f>
+                  <c:f>Obliczenia!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6455,8 +6546,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{59C21EC7-D7A2-4687-B8E6-C0780AF990D9}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$M$70</c15:f>
+                      <c15:txfldGUID>{279076DD-DA62-4998-9C20-96ACE25CE5A4}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6470,11 +6561,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$N$70</c:f>
+                  <c:f>Obliczenia!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6495,8 +6586,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6FE3F264-797C-4C21-809C-822402C91DE2}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$N$70</c15:f>
+                      <c15:txfldGUID>{BABF4152-10AE-4657-A435-3BD34D56BC0D}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6510,11 +6601,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$O$70</c:f>
+                  <c:f>Obliczenia!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6535,8 +6626,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5965A9ED-51A3-4872-878D-7C4F2B0C63ED}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$O$70</c15:f>
+                      <c15:txfldGUID>{696D547F-861D-4FB8-BEC6-2EB7C2233E9B}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6550,11 +6641,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$P$70</c:f>
+                  <c:f>Obliczenia!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6575,8 +6666,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FFC27110-831B-44C8-AFC2-1DB766BB4867}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$P$70</c15:f>
+                      <c15:txfldGUID>{346ED8EA-E752-41CE-98D9-0176309EFA9D}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6590,11 +6681,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Q$70</c:f>
+                  <c:f>Obliczenia!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6615,8 +6706,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{47AE073F-6D3D-4D63-BFA9-81A8FDB1B604}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Q$70</c15:f>
+                      <c15:txfldGUID>{FBC19A6D-AFB9-45A0-8B58-EA80F738C44E}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6630,11 +6721,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$R$70</c:f>
+                  <c:f>Obliczenia!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6655,8 +6746,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8A29ED8D-5E12-4F5F-9097-F074F0C5F7E7}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$R$70</c15:f>
+                      <c15:txfldGUID>{455168EC-B1F9-4A29-8EF5-568739588651}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6670,11 +6761,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$S$70</c:f>
+                  <c:f>Obliczenia!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6695,8 +6786,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{80A59B3A-2774-4189-9DA4-A6744331F5A7}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$S$70</c15:f>
+                      <c15:txfldGUID>{C5E6A390-6970-4D97-8B1A-0AA1F976BC8D}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6710,11 +6801,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$T$70</c:f>
+                  <c:f>Obliczenia!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6735,8 +6826,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A15B4416-7567-4B40-BD01-4A5EDB23A30B}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$T$70</c15:f>
+                      <c15:txfldGUID>{F8E6CD1E-00B3-4627-A0D8-4ED886414051}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6750,11 +6841,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$U$70</c:f>
+                  <c:f>Obliczenia!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6775,8 +6866,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B04DBBAD-6EAB-454A-A7D0-0F2088AA32EE}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$U$70</c15:f>
+                      <c15:txfldGUID>{A44C4F3F-B3D3-4EF5-A85C-BF8B823AC9A2}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6790,11 +6881,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$V$70</c:f>
+                  <c:f>Obliczenia!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6815,8 +6906,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4A2FFA1C-59E7-41BE-BF75-3BCBD4CAFA96}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$V$70</c15:f>
+                      <c15:txfldGUID>{75F27325-46C1-4F25-8A1D-56652CA5D877}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6830,11 +6921,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$W$70</c:f>
+                  <c:f>Obliczenia!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6855,8 +6946,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9A6ABFEB-5FF5-4FE1-8360-400E915348D8}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$W$70</c15:f>
+                      <c15:txfldGUID>{A98283A6-AA2B-4994-8C18-E4DAFBB8AFCC}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6870,11 +6961,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$X$70</c:f>
+                  <c:f>Obliczenia!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6895,8 +6986,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E00C4928-5D12-4EC2-BDC0-9B3A9A43319C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$X$70</c15:f>
+                      <c15:txfldGUID>{58B859B2-377F-409E-A210-F24782EBB89D}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6910,11 +7001,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Y$70</c:f>
+                  <c:f>Obliczenia!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6935,8 +7026,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D7A5239C-184D-4A68-8C3A-F376BDCC70D7}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Y$70</c15:f>
+                      <c15:txfldGUID>{70A5E807-5A8C-48F6-81C7-B4C605056D50}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6950,11 +7041,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$Z$70</c:f>
+                  <c:f>Obliczenia!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6975,8 +7066,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C8572A59-FADE-4922-9072-8BB6CA888930}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$Z$70</c15:f>
+                      <c15:txfldGUID>{5F83B39C-C025-423B-989E-A89AE8F71DBC}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6990,11 +7081,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AA$70</c:f>
+                  <c:f>Obliczenia!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7015,8 +7106,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ACF4C6C3-0B66-4605-8FB2-284A331D3B07}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AA$70</c15:f>
+                      <c15:txfldGUID>{F21B9818-64B2-40C7-9D86-B078CC1A8887}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7030,11 +7121,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AB$70</c:f>
+                  <c:f>Obliczenia!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7055,8 +7146,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A9AE208A-C683-42D3-9026-D5FCC2511B31}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AB$70</c15:f>
+                      <c15:txfldGUID>{CBB56F0A-D83F-4C8B-8BBA-3E3D6AAE03DF}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7070,11 +7161,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AC$70</c:f>
+                  <c:f>Obliczenia!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7095,8 +7186,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C606F989-65F5-47E9-A965-4514F6FD46B5}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AC$70</c15:f>
+                      <c15:txfldGUID>{357281BE-F6F7-4704-8573-8320285BE3F8}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7110,11 +7201,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AD$70</c:f>
+                  <c:f>Obliczenia!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7135,8 +7226,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CAE333CC-460F-4D8F-9A11-5CAD72A11688}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AD$70</c15:f>
+                      <c15:txfldGUID>{5211B8E3-BAB5-4BC8-AAE8-C1B3604D7061}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7150,11 +7241,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AE$70</c:f>
+                  <c:f>Obliczenia!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7175,8 +7266,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF66C4EA-91BE-4783-B13E-7398D4923899}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AE$70</c15:f>
+                      <c15:txfldGUID>{0FD98BFA-0B42-4B46-8F58-FF9B913B7B14}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7190,11 +7281,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AF$70</c:f>
+                  <c:f>Obliczenia!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7215,8 +7306,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{96C794BF-51AC-4248-8331-6E49FFC19799}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AF$70</c15:f>
+                      <c15:txfldGUID>{B2D420EC-31B7-4488-83F6-6C26C4EB48AB}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -7230,11 +7321,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>Obliczenia!$AG$70</c:f>
+                  <c:f>Obliczenia!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7255,52 +7346,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3DD4A902-8D71-4D52-AA8F-7954E5C6EE2C}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AG$70</c15:f>
+                      <c15:txfldGUID>{3FE1398C-D42A-4D21-8B97-C8D8F737BD1B}</c15:txfldGUID>
+                      <c15:f>Obliczenia!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>ŚR</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>Obliczenia!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>CZ</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{89E6F2E8-32F4-4E2F-BEE5-B2D1ECB9DCB6}</c15:txfldGUID>
-                      <c15:f>Obliczenia!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>CZ</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7449,7 +7500,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gru 2014 - Top Band</c:v>
+                  <c:v>lis 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7552,10 +7603,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -7574,7 +7625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sty 2015 - Top Band</c:v>
+                  <c:v>gru 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7677,10 +7728,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>13</c:v>
@@ -7700,11 +7751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129346944"/>
-        <c:axId val="134616192"/>
+        <c:axId val="179644384"/>
+        <c:axId val="179644944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129346944"/>
+        <c:axId val="179644384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134616192"/>
+        <c:crossAx val="179644944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7735,7 +7786,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134616192"/>
+        <c:axId val="179644944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7747,7 +7798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129346944"/>
+        <c:crossAx val="179644384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7782,7 +7833,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="Okno_Przesunięcie" horiz="1" max="100" noThreeD="1" page="7" val="93"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="Okno_Przesunięcie" horiz="1" max="100" noThreeD="1" page="7" val="64"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7834,7 +7885,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Pasek przewijania " hidden="1">
+            <xdr:cNvPr id="1025" name="Pasek przewijania " descr="Click the scroll bar to modify the project time frame shown on the Timeline Chart or enter the start date for the display of project activities in cell D20." hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -7843,7 +7894,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -7851,6 +7902,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -8131,8 +8188,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8244,7 +8301,7 @@
         <v>41883</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8313,7 +8370,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="19">
         <f>D25</f>
@@ -8413,7 +8470,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="19">
         <f>E32+1</f>
@@ -8453,7 +8510,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="19">
         <f>D33+8</f>
@@ -8473,7 +8530,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="19">
         <f t="shared" ref="D36:D37" si="3">D35+8</f>
@@ -8493,7 +8550,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" s="19">
         <f t="shared" si="3"/>
@@ -8513,7 +8570,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D38" s="19">
         <f>E27+6</f>
@@ -8533,18 +8590,18 @@
         <v>16</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="21">
-        <f>E28+3</f>
-        <v>41953</v>
+        <f>E38+3</f>
+        <v>41940</v>
       </c>
       <c r="E39" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+6</f>
-        <v>41959</v>
+        <v>41946</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8553,15 +8610,15 @@
         <v>17</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="19">
-        <f>E38+5</f>
-        <v>41942</v>
+        <f>E39+5</f>
+        <v>41951</v>
       </c>
       <c r="E40" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+22</f>
-        <v>41964</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+12</f>
+        <v>41963</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>20</v>
@@ -8573,18 +8630,18 @@
         <v>18</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D41" s="21">
-        <f>E39+1</f>
-        <v>41960</v>
+        <f>E40+1</f>
+        <v>41964</v>
       </c>
       <c r="E41" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+6</f>
-        <v>41966</v>
+        <v>41970</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8596,12 +8653,12 @@
         <v>29</v>
       </c>
       <c r="D42" s="19">
-        <f>E40+1</f>
-        <v>41965</v>
+        <f>E41+1</f>
+        <v>41971</v>
       </c>
       <c r="E42" s="19">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+11</f>
-        <v>41976</v>
+        <v>41982</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>20</v>
@@ -8613,18 +8670,18 @@
         <v>20</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D43" s="21">
-        <f>E42+3</f>
-        <v>41979</v>
+        <f>E42+1</f>
+        <v>41983</v>
       </c>
       <c r="E43" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+13</f>
-        <v>41992</v>
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
+        <v>41997</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8633,15 +8690,15 @@
         <v>21</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D44" s="21">
-        <f>E41+1</f>
-        <v>41967</v>
-      </c>
-      <c r="E44" s="19">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+14</f>
-        <v>41981</v>
+        <f>E43+1</f>
+        <v>41998</v>
+      </c>
+      <c r="E44" s="21">
+        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
+        <v>42005</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>20</v>
@@ -8653,15 +8710,15 @@
         <v>22</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="21">
-        <f>E44+1</f>
-        <v>41982</v>
+        <f>E44+4</f>
+        <v>42009</v>
       </c>
       <c r="E45" s="21">
         <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>41989</v>
+        <v>42016</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>20</v>
@@ -8672,20 +8729,10 @@
         <f>N(B45)+1</f>
         <v>23</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="21">
-        <f>E45+4</f>
-        <v>41993</v>
-      </c>
-      <c r="E46" s="21">
-        <f>Działania[[#This Row],[ROZPOCZĘCIE]]+7</f>
-        <v>42000</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8758,7 +8805,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41940</v>
+        <v>42016</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8841,7 +8888,7 @@
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Działania[Identyfikator],MATCH(1, ((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
@@ -8852,7 +8899,7 @@
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E15)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8863,7 +8910,7 @@
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E16)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8873,7 +8920,7 @@
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E17)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F18" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8883,11 +8930,11 @@
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Działania[Identyfikator],MATCH(1, (Działania[Identyfikator]&gt;E18)*((Działania[ROZPOCZĘCIE]&gt;=DataRozpoczęciaWindow)+(Działania[ZAKOŃCZENIE]&gt;=DataRozpoczęciaWindow)&gt;0)*(Działania[ROZPOCZĘCIE]&lt;=(DataRozpoczęciaWindow+Okno_Dni-1)), 0))</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -8897,7 +8944,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
@@ -8907,7 +8954,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -8917,7 +8964,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -8927,7 +8974,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -8936,7 +8983,7 @@
       </c>
       <c r="D25" s="1">
         <f>DataRozpoczęcia+Okno_Przesunięcie</f>
-        <v>41976</v>
+        <v>41947</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -8944,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
@@ -8979,127 +9026,127 @@
       </c>
       <c r="E31" s="1">
         <f>DataRozpoczęciaWindow</f>
-        <v>41976</v>
+        <v>41947</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>41977</v>
+        <v>41948</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>41978</v>
+        <v>41949</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>41979</v>
+        <v>41950</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>41980</v>
+        <v>41951</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>41981</v>
+        <v>41952</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>41982</v>
+        <v>41953</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>41985</v>
+        <v>41956</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>41986</v>
+        <v>41957</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>41987</v>
+        <v>41958</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>41988</v>
+        <v>41959</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>41989</v>
+        <v>41960</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>41990</v>
+        <v>41961</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>41991</v>
+        <v>41962</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>41992</v>
+        <v>41963</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>41993</v>
+        <v>41964</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>41994</v>
+        <v>41965</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>41995</v>
+        <v>41966</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>41996</v>
+        <v>41967</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>41997</v>
+        <v>41968</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>41998</v>
+        <v>41969</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>41999</v>
+        <v>41970</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>42000</v>
+        <v>41971</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>42001</v>
+        <v>41972</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>42002</v>
+        <v>41973</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>42003</v>
+        <v>41974</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>42004</v>
+        <v>41975</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>42005</v>
+        <v>41976</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>42006</v>
+        <v>41977</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -9675,27 +9722,27 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C36,Działania[Identyfikator],0))</f>
-        <v>Integracja Fancybox</v>
+        <v>Skrypt galerii</v>
       </c>
       <c r="E36">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="F36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="F36">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="G36">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H36">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>7.3000000000000007</v>
       </c>
       <c r="I36" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9816,23 +9863,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C37,Działania[Identyfikator],0))</f>
-        <v>Dynamiczne odkrywanie treści</v>
-      </c>
-      <c r="E37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+        <v>Diagram obiektów</v>
+      </c>
+      <c r="E37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="F37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="G37">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="H37">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9854,41 +9901,41 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="M37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="N37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="O37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="P37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="Q37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="R37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="S37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="T37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="U37">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>6.3000000000000007</v>
+      <c r="M37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
       </c>
       <c r="V37" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -9957,79 +10004,79 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C38,Działania[Identyfikator],0))</f>
-        <v>Usuwanie plików</v>
-      </c>
-      <c r="E38">
+        <v>Połączenie funkcji składowych z bazą danych</v>
+      </c>
+      <c r="E38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="F38">
+      <c r="J38">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="G38">
+      <c r="K38">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="H38">
+      <c r="L38">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="I38">
+      <c r="M38">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="J38">
+      <c r="N38">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="K38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U38" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
+      <c r="O38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="P38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="Q38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="R38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="S38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="T38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="U38">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>5.3000000000000007</v>
       </c>
       <c r="V38" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10098,11 +10145,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C39,Działania[Identyfikator],0))</f>
-        <v>Strona konfiguracji CMS</v>
+        <v>Automove Cursor</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10128,77 +10175,77 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="L39">
+      <c r="W39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="M39">
+      <c r="X39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="N39">
+      <c r="Y39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="O39">
+      <c r="Z39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="P39">
+      <c r="AA39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="Q39">
+      <c r="AB39">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="R39">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="S39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB39" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
       </c>
       <c r="AC39" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10239,11 +10286,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">INDEX(Działania[DZIAŁANIE],MATCH($C40,Działania[Identyfikator],0))</f>
-        <v>Some additional features</v>
+        <v>Integracja Fancybox</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">Kalkulatorsiatkowy</f>
@@ -10313,183 +10360,183 @@
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>#N/A</v>
       </c>
-      <c r="V40">
+      <c r="V40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB40" t="e">
+        <f ca="1">Kalkulatorsiatkowy</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="W40">
+      <c r="AD40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="X40">
+      <c r="AE40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="Y40">
+      <c r="AF40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="Z40">
+      <c r="AG40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="AA40">
+      <c r="AH40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="AB40">
+      <c r="AI40">
         <f ca="1">Kalkulatorsiatkowy</f>
         <v>3.3000000000000007</v>
-      </c>
-      <c r="AC40">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AD40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI40" t="e">
-        <f ca="1">Kalkulatorsiatkowy</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>41976</v>
+        <v>41947</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>41977</v>
+        <v>41948</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>41978</v>
+        <v>41949</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>41979</v>
+        <v>41950</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>41980</v>
+        <v>41951</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>41981</v>
+        <v>41952</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>41982</v>
+        <v>41953</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>41985</v>
+        <v>41956</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>41986</v>
+        <v>41957</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>41987</v>
+        <v>41958</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>41988</v>
+        <v>41959</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>41989</v>
+        <v>41960</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>41990</v>
+        <v>41961</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>41991</v>
+        <v>41962</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>41992</v>
+        <v>41963</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>41993</v>
+        <v>41964</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>41994</v>
+        <v>41965</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>41995</v>
+        <v>41966</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>41996</v>
+        <v>41967</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>41997</v>
+        <v>41968</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>41998</v>
+        <v>41969</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>41999</v>
+        <v>41970</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>42000</v>
+        <v>41971</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>42001</v>
+        <v>41972</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>42002</v>
+        <v>41973</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>42003</v>
+        <v>41974</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>42004</v>
+        <v>41975</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>42005</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -11015,15 +11062,15 @@
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C48,Działania[Identyfikator],0)))</f>
-        <v>INTEGRACJA FANCYBOX</v>
-      </c>
-      <c r="E48">
+        <v>SKRYPT GALERII</v>
+      </c>
+      <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="F48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11033,9 +11080,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="H48" t="e">
+      <c r="H48">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="I48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11145,11 +11192,11 @@
     <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C49,Działania[Identyfikator],0)))</f>
-        <v>DYNAMICZNE ODKRYWANIE TREŚCI</v>
+        <v>DIAGRAM OBIEKTÓW</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -11179,9 +11226,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="L49" t="e">
+      <c r="L49">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -11215,9 +11262,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="U49">
+      <c r="U49" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="V49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -11275,11 +11322,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C50,Działania[Identyfikator],0)))</f>
-        <v>USUWANIE PLIKÓW</v>
+        <v>POŁĄCZENIE FUNKCJI SKŁADOWYCH Z BAZĄ DANYCH</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11301,53 +11348,53 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U50">
         <f t="shared" ca="1" si="12"/>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="K50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
       </c>
       <c r="V50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -11405,11 +11452,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C51,Działania[Identyfikator],0)))</f>
-        <v>STRONA KONFIGURACJI CMS</v>
+        <v>AUTOMOVE CURSOR</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -11463,49 +11510,49 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB51">
         <f t="shared" ca="1" si="13"/>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="S51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
       </c>
       <c r="AC51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11535,11 +11582,11 @@
     <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Działania[DZIAŁANIE],MATCH($C52,Działania[Identyfikator],0)))</f>
-        <v>SOME ADDITIONAL FEATURES</v>
+        <v>INTEGRACJA FANCYBOX</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11637,9 +11684,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="AC52">
+      <c r="AC52" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AD52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11665,123 +11712,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>41976</v>
+        <v>41947</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>41977</v>
+        <v>41948</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>41978</v>
+        <v>41949</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>41979</v>
+        <v>41950</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>41980</v>
+        <v>41951</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>41981</v>
+        <v>41952</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>41982</v>
+        <v>41953</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>41985</v>
+        <v>41956</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>41986</v>
+        <v>41957</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>41987</v>
+        <v>41958</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>41988</v>
+        <v>41959</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>41989</v>
+        <v>41960</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>41990</v>
+        <v>41961</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>41991</v>
+        <v>41962</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>41992</v>
+        <v>41963</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>41993</v>
+        <v>41964</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>41994</v>
+        <v>41965</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>41995</v>
+        <v>41966</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>41996</v>
+        <v>41967</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>41997</v>
+        <v>41968</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>41998</v>
+        <v>41969</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>41999</v>
+        <v>41970</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>42000</v>
+        <v>41971</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>42001</v>
+        <v>41972</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>42002</v>
+        <v>41973</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>42003</v>
+        <v>41974</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>42004</v>
+        <v>41975</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>42005</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
@@ -11912,7 +11959,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D58" s="3">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="E58">
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -12022,13 +12069,13 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG58">
+        <v>#N/A</v>
+      </c>
+      <c r="AG58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AH58" t="e">
         <f t="shared" si="17"/>
@@ -12038,7 +12085,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="str">
         <f>TEXT(D58,"mmm rrrr") &amp; " - Top Band"</f>
-        <v>gru 2014 - Top Band</v>
+        <v>lis 2014 - Top Band</v>
       </c>
       <c r="E59">
         <f>E58+12.5</f>
@@ -12148,13 +12195,13 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="AG59">
+        <v>#N/A</v>
+      </c>
+      <c r="AG59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AH59" t="e">
         <f t="shared" si="18"/>
@@ -12167,7 +12214,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D61" s="3">
         <f>EOMONTH(D58,0)+1</f>
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="E61" t="e">
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -12277,13 +12324,13 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="AF61" t="e">
+      <c r="AF61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AG61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AH61">
         <f t="shared" si="19"/>
@@ -12293,7 +12340,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="str">
         <f>TEXT(D61,"mmm rrrr") &amp; " - Top Band"</f>
-        <v>sty 2015 - Top Band</v>
+        <v>gru 2014 - Top Band</v>
       </c>
       <c r="E62" t="e">
         <f>E61+12.5</f>
@@ -12403,13 +12450,13 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="AF62" t="e">
+      <c r="AF62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG62" t="e">
+        <v>13</v>
+      </c>
+      <c r="AG62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AH62">
         <f t="shared" si="20"/>
@@ -12422,7 +12469,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D65" s="3">
         <f>D58+1</f>
-        <v>41975</v>
+        <v>41945</v>
       </c>
       <c r="E65" t="e">
         <f>IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -12548,7 +12595,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D66" s="3">
         <f>D61+1</f>
-        <v>42006</v>
+        <v>41975</v>
       </c>
       <c r="E66" t="e">
         <f>IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12662,9 +12709,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AG66" t="e">
+      <c r="AG66">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AH66" t="e">
         <f t="shared" si="21"/>
@@ -12798,123 +12845,123 @@
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>ŚR</v>
+        <v>WT</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>CZ</v>
+        <v>ŚR</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>CZ</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PT</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>SO</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>N</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>PN</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>WT</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>ŚR</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>CZ</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PT</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>SO</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>N</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>PN</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>WT</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>ŚR</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>CZ</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PT</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>SO</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>N</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>PN</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>WT</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>ŚR</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>PT</v>
+        <v>CZ</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>PT</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>N</v>
+        <v>SO</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>PN</v>
+        <v>N</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>WT</v>
+        <v>PN</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>ŚR</v>
+        <v>WT</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>CZ</v>
+        <v>ŚR</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.2">
@@ -13041,123 +13088,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>03</v>
+        <v>04</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>04</v>
+        <v>05</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>08</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>10</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>01</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>02</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>03</v>
       </c>
     </row>
   </sheetData>

--- a/Diagram Gantta.xlsx
+++ b/Diagram Gantta.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Działanie</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Upload plików</t>
+  </si>
+  <si>
+    <t>Damian i Adam</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1240,7 +1242,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1633,9 +1634,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1655,7 +1654,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2046,7 +2044,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2458,7 +2455,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3693,7 +3689,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3985,7 +3980,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4681,7 +4675,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4839,7 +4832,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{261E4B3A-986E-4A60-9BE2-EF0D816252AE}</c15:txfldGUID>
+                      <c15:txfldGUID>{F47ECDC4-5D5A-462E-8491-84FE6526CC89}</c15:txfldGUID>
                       <c15:f>Obliczenia!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4879,7 +4872,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{94EA9045-B4E9-4E96-8FDB-91103131BAB7}</c15:txfldGUID>
+                      <c15:txfldGUID>{710ECDCC-23A1-4845-9670-1E1B2A04D04A}</c15:txfldGUID>
                       <c15:f>Obliczenia!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4919,7 +4912,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AC8A79CA-9B79-4EFF-BCE5-92C17AEE587E}</c15:txfldGUID>
+                      <c15:txfldGUID>{02C57D35-6C86-4283-B285-573955049C09}</c15:txfldGUID>
                       <c15:f>Obliczenia!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4959,7 +4952,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C8B9C1D6-E97E-41BA-B64A-78A63FCBD30C}</c15:txfldGUID>
+                      <c15:txfldGUID>{24A36EED-4227-4559-871A-66FEA9DA7965}</c15:txfldGUID>
                       <c15:f>Obliczenia!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4999,7 +4992,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A4A28C3F-130D-4E4A-863F-68B297423A59}</c15:txfldGUID>
+                      <c15:txfldGUID>{F13FFF07-2435-4872-A858-8399E6B5C2C3}</c15:txfldGUID>
                       <c15:f>Obliczenia!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5039,7 +5032,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C2FC7AD3-1F68-42AD-BFAA-45370816ADE3}</c15:txfldGUID>
+                      <c15:txfldGUID>{6C97755B-B380-406F-AA0C-C23C64B548AD}</c15:txfldGUID>
                       <c15:f>Obliczenia!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5079,7 +5072,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5C64E06A-AC32-4533-8410-BD0EFF8CD3E9}</c15:txfldGUID>
+                      <c15:txfldGUID>{275F0F47-F30D-424D-982E-9C49B5297928}</c15:txfldGUID>
                       <c15:f>Obliczenia!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5119,7 +5112,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DC88BD05-40BC-4065-A9E1-AF6935794588}</c15:txfldGUID>
+                      <c15:txfldGUID>{C625052D-478E-4408-B8EE-F77157525020}</c15:txfldGUID>
                       <c15:f>Obliczenia!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5159,7 +5152,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{875874DB-C9C4-4EF8-811C-301AFCCE0702}</c15:txfldGUID>
+                      <c15:txfldGUID>{438401EA-3B04-40FD-A067-87F0A2071D48}</c15:txfldGUID>
                       <c15:f>Obliczenia!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5199,7 +5192,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{942A04E1-F856-4031-A788-B1A498D5B781}</c15:txfldGUID>
+                      <c15:txfldGUID>{53BCBF5A-58FF-4AA3-BDF9-2E968DE95C99}</c15:txfldGUID>
                       <c15:f>Obliczenia!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5239,7 +5232,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F57C981-AB74-4C53-A1E8-BAF72A034D27}</c15:txfldGUID>
+                      <c15:txfldGUID>{2E068BA6-23A1-49EE-A313-378545BC9E97}</c15:txfldGUID>
                       <c15:f>Obliczenia!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5279,7 +5272,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6EC00F08-7DC3-4A5A-99F9-E8A8EA415E44}</c15:txfldGUID>
+                      <c15:txfldGUID>{E8A2F2E9-B268-46E9-8D4B-F482DC6D40F4}</c15:txfldGUID>
                       <c15:f>Obliczenia!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5319,7 +5312,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2055DF06-20F7-4F00-95B5-0A998CA5799F}</c15:txfldGUID>
+                      <c15:txfldGUID>{2641BB17-9251-4425-8B9B-65215F567C49}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5359,7 +5352,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ACAC35D7-5CFF-4983-B6FA-EC75662FD40C}</c15:txfldGUID>
+                      <c15:txfldGUID>{ED5553BF-1169-417A-9DF3-C09ABA5620BC}</c15:txfldGUID>
                       <c15:f>Obliczenia!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5399,7 +5392,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C28E4E1-4844-4AC3-84CE-C06E04D798D6}</c15:txfldGUID>
+                      <c15:txfldGUID>{E3BFCCF1-A35D-40DE-A917-5AB3C9C45165}</c15:txfldGUID>
                       <c15:f>Obliczenia!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5439,7 +5432,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BBFECE19-2B66-400C-BD76-47701429B95C}</c15:txfldGUID>
+                      <c15:txfldGUID>{F583864A-05D0-4220-A4D7-861A45C16DA6}</c15:txfldGUID>
                       <c15:f>Obliczenia!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5479,7 +5472,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C2AA7C5E-B04E-4F31-9C58-ADC5C8D169C7}</c15:txfldGUID>
+                      <c15:txfldGUID>{923D8D3A-0C1C-494E-AA30-32CA5C3BFE2D}</c15:txfldGUID>
                       <c15:f>Obliczenia!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5519,7 +5512,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8171AA74-9ECA-4BD0-9DD9-BCCF2DF3B966}</c15:txfldGUID>
+                      <c15:txfldGUID>{3962EBB4-2EC1-4D84-BA88-10375C56D965}</c15:txfldGUID>
                       <c15:f>Obliczenia!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5559,7 +5552,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E820371D-3426-43DB-985D-69B5D4E8AD4C}</c15:txfldGUID>
+                      <c15:txfldGUID>{54DE48B1-F140-4A00-A2E8-06A922D15385}</c15:txfldGUID>
                       <c15:f>Obliczenia!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5599,7 +5592,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B3C4D615-A377-45BA-BB63-C0875F5CD424}</c15:txfldGUID>
+                      <c15:txfldGUID>{48100B12-FDAC-4678-B86E-60D3D67B9051}</c15:txfldGUID>
                       <c15:f>Obliczenia!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5639,7 +5632,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A54AD2DD-891C-439D-95D2-5876DF5F9990}</c15:txfldGUID>
+                      <c15:txfldGUID>{C281E75F-AD5B-4B5C-976F-43C75B629B42}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5679,7 +5672,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B5979802-0891-4BA9-AC95-797AB7306BB7}</c15:txfldGUID>
+                      <c15:txfldGUID>{53E1DAE3-977A-41B2-AFE3-36DA0C70D5C3}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5719,7 +5712,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{105AC6FD-8C1F-458B-B078-936C05DA3E65}</c15:txfldGUID>
+                      <c15:txfldGUID>{786DF569-B333-408A-A67C-2895A71A2EB8}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5759,7 +5752,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{19595963-0547-4F82-A58F-391A052B3874}</c15:txfldGUID>
+                      <c15:txfldGUID>{74B96133-4EB4-4066-BB0A-18D5E3902517}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5799,7 +5792,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8F359FFA-8BD2-4F63-8348-F14293F01CBA}</c15:txfldGUID>
+                      <c15:txfldGUID>{BBBB3817-76F9-40E4-A87D-BC6A09B4ACD6}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5839,7 +5832,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{149D42E7-D85A-472A-BF9F-7EFDEBFA12F5}</c15:txfldGUID>
+                      <c15:txfldGUID>{A890CD3B-9E1A-405B-AE8D-3279A24EBE2F}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5879,7 +5872,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{597F8291-38AD-47E7-A4BF-2826BE18DA3E}</c15:txfldGUID>
+                      <c15:txfldGUID>{0EB717CB-AE10-4E95-B3F5-756EA04FF7E8}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5919,7 +5912,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3F12AF6D-1241-4ABE-AE1F-EC846CDE2E01}</c15:txfldGUID>
+                      <c15:txfldGUID>{515C2675-0781-4AF1-94A6-13BC24F4081F}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5959,7 +5952,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E34F84B9-7662-4330-AC03-1F1AAC74B4B1}</c15:txfldGUID>
+                      <c15:txfldGUID>{ABAB776B-5DA1-4F02-9740-4E6445886F1C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5999,7 +5992,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B4889AAF-096F-47FD-AEC5-AFB417B6D604}</c15:txfldGUID>
+                      <c15:txfldGUID>{45E33833-4C6B-496A-BE65-C2C1EC449DC1}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6186,7 +6179,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{77663FA3-02B8-402A-BAA3-6F0CF854E5F4}</c15:txfldGUID>
+                      <c15:txfldGUID>{75231E5C-DA3C-4770-90DB-52EA4C9404A5}</c15:txfldGUID>
                       <c15:f>Obliczenia!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6226,7 +6219,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D26A751-E572-45AF-B912-9D3FA769FF4C}</c15:txfldGUID>
+                      <c15:txfldGUID>{3A482CF9-7CD6-4A38-BEA3-0A20B9DF5467}</c15:txfldGUID>
                       <c15:f>Obliczenia!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6266,7 +6259,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6224B71B-9F36-484D-A50F-7889F8A3B620}</c15:txfldGUID>
+                      <c15:txfldGUID>{B661BAD9-5020-4C70-B581-F59419F985E1}</c15:txfldGUID>
                       <c15:f>Obliczenia!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6306,7 +6299,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{30542745-A23A-4CE0-AA25-5D8985A8C17F}</c15:txfldGUID>
+                      <c15:txfldGUID>{949178CF-7352-4741-8DD7-A5C469E9A6F3}</c15:txfldGUID>
                       <c15:f>Obliczenia!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6346,7 +6339,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C70544DE-D670-4429-B968-8668022DDD87}</c15:txfldGUID>
+                      <c15:txfldGUID>{77D47662-213B-40D3-B0B1-DD761FF53A1B}</c15:txfldGUID>
                       <c15:f>Obliczenia!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6386,7 +6379,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3633320-CD11-4843-B468-606A0F2AF0B1}</c15:txfldGUID>
+                      <c15:txfldGUID>{60F640ED-1494-4AEF-859C-7DABE8F22599}</c15:txfldGUID>
                       <c15:f>Obliczenia!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6426,7 +6419,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{62144FDB-54C5-4E4C-85F9-2EAEDB2286A2}</c15:txfldGUID>
+                      <c15:txfldGUID>{A561769A-C676-4B10-8DE1-E8FCB405BB2F}</c15:txfldGUID>
                       <c15:f>Obliczenia!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6466,7 +6459,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BFC5B40B-E457-4204-9E87-0460706BC193}</c15:txfldGUID>
+                      <c15:txfldGUID>{84955E45-B31F-4121-888A-58542D79D121}</c15:txfldGUID>
                       <c15:f>Obliczenia!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6506,7 +6499,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9450BBCC-E265-4775-911A-077A69151891}</c15:txfldGUID>
+                      <c15:txfldGUID>{29EE732F-4252-4194-90D0-4BAA2EF65AD6}</c15:txfldGUID>
                       <c15:f>Obliczenia!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6546,7 +6539,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{279076DD-DA62-4998-9C20-96ACE25CE5A4}</c15:txfldGUID>
+                      <c15:txfldGUID>{1B0AFCAC-F8A1-441B-9EB0-2F91EABB0D11}</c15:txfldGUID>
                       <c15:f>Obliczenia!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6586,7 +6579,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BABF4152-10AE-4657-A435-3BD34D56BC0D}</c15:txfldGUID>
+                      <c15:txfldGUID>{125D10E3-D88B-4DFD-AC30-038B2B9DBD5E}</c15:txfldGUID>
                       <c15:f>Obliczenia!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6626,7 +6619,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{696D547F-861D-4FB8-BEC6-2EB7C2233E9B}</c15:txfldGUID>
+                      <c15:txfldGUID>{9E3E74BB-0B00-4CFC-98B7-4A2A9A82E8A7}</c15:txfldGUID>
                       <c15:f>Obliczenia!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6666,7 +6659,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{346ED8EA-E752-41CE-98D9-0176309EFA9D}</c15:txfldGUID>
+                      <c15:txfldGUID>{BDD1F486-0A5B-4FC4-B3B4-DD832C90B3DD}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6706,7 +6699,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FBC19A6D-AFB9-45A0-8B58-EA80F738C44E}</c15:txfldGUID>
+                      <c15:txfldGUID>{48A01A4E-B5D0-4FFA-A2B6-AEBD1ECB8713}</c15:txfldGUID>
                       <c15:f>Obliczenia!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6746,7 +6739,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{455168EC-B1F9-4A29-8EF5-568739588651}</c15:txfldGUID>
+                      <c15:txfldGUID>{94B44B23-622D-47B6-B155-43F4F54C319C}</c15:txfldGUID>
                       <c15:f>Obliczenia!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6786,7 +6779,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C5E6A390-6970-4D97-8B1A-0AA1F976BC8D}</c15:txfldGUID>
+                      <c15:txfldGUID>{D29F31E2-4D8A-4CCD-A87E-AFCF29167EDF}</c15:txfldGUID>
                       <c15:f>Obliczenia!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6826,7 +6819,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F8E6CD1E-00B3-4627-A0D8-4ED886414051}</c15:txfldGUID>
+                      <c15:txfldGUID>{C792079E-1627-4FE7-BC91-FA653B768E23}</c15:txfldGUID>
                       <c15:f>Obliczenia!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6866,7 +6859,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A44C4F3F-B3D3-4EF5-A85C-BF8B823AC9A2}</c15:txfldGUID>
+                      <c15:txfldGUID>{B701F157-21B2-4D7D-9A89-D6B11588BDB4}</c15:txfldGUID>
                       <c15:f>Obliczenia!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6906,7 +6899,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75F27325-46C1-4F25-8A1D-56652CA5D877}</c15:txfldGUID>
+                      <c15:txfldGUID>{3A0C169D-B789-480F-992A-2F6B450DA866}</c15:txfldGUID>
                       <c15:f>Obliczenia!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6946,7 +6939,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A98283A6-AA2B-4994-8C18-E4DAFBB8AFCC}</c15:txfldGUID>
+                      <c15:txfldGUID>{DD6386EC-EF0F-464B-93CD-C6946D997C25}</c15:txfldGUID>
                       <c15:f>Obliczenia!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6986,7 +6979,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{58B859B2-377F-409E-A210-F24782EBB89D}</c15:txfldGUID>
+                      <c15:txfldGUID>{0030927F-7EB4-4AA8-976A-67C7464D00B3}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7026,7 +7019,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{70A5E807-5A8C-48F6-81C7-B4C605056D50}</c15:txfldGUID>
+                      <c15:txfldGUID>{BD7621CE-11E2-4A97-B5D2-1E67CBDA5EA0}</c15:txfldGUID>
                       <c15:f>Obliczenia!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7066,7 +7059,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F83B39C-C025-423B-989E-A89AE8F71DBC}</c15:txfldGUID>
+                      <c15:txfldGUID>{A636088A-E720-482A-96A5-5B0E0A522934}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7106,7 +7099,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F21B9818-64B2-40C7-9D86-B078CC1A8887}</c15:txfldGUID>
+                      <c15:txfldGUID>{984EF63B-F4ED-4225-94EB-B836960DCF01}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7146,7 +7139,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CBB56F0A-D83F-4C8B-8BBA-3E3D6AAE03DF}</c15:txfldGUID>
+                      <c15:txfldGUID>{8749C56C-03F2-499F-A827-8C4EB3F81FFB}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7186,7 +7179,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{357281BE-F6F7-4704-8573-8320285BE3F8}</c15:txfldGUID>
+                      <c15:txfldGUID>{F774F207-B439-49AD-8D60-6E499EC513F0}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7226,7 +7219,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5211B8E3-BAB5-4BC8-AAE8-C1B3604D7061}</c15:txfldGUID>
+                      <c15:txfldGUID>{B5B92F02-3ECC-46EC-93DD-5E04116DFB8F}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7266,7 +7259,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0FD98BFA-0B42-4B46-8F58-FF9B913B7B14}</c15:txfldGUID>
+                      <c15:txfldGUID>{BBE7C4BE-A7F1-4ED7-903F-FC9A4E4C42DB}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7306,7 +7299,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B2D420EC-31B7-4488-83F6-6C26C4EB48AB}</c15:txfldGUID>
+                      <c15:txfldGUID>{DF6B50F6-CBEB-4BD0-8226-C6CC39573D11}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7346,7 +7339,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3FE1398C-D42A-4D21-8B97-C8D8F737BD1B}</c15:txfldGUID>
+                      <c15:txfldGUID>{EE79F1CC-800C-4F80-BBF7-8490A2738C28}</c15:txfldGUID>
                       <c15:f>Obliczenia!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7751,11 +7744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179644384"/>
-        <c:axId val="179644944"/>
+        <c:axId val="173434448"/>
+        <c:axId val="173435008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179644384"/>
+        <c:axId val="173434448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7778,7 +7771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179644944"/>
+        <c:crossAx val="173435008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7786,7 +7779,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179644944"/>
+        <c:axId val="173435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7798,7 +7791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179644384"/>
+        <c:crossAx val="173434448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8188,8 +8181,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8601,7 +8594,7 @@
         <v>41946</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8641,7 +8634,7 @@
         <v>41970</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8661,7 +8654,7 @@
         <v>41982</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
